--- a/nhl-fantasy-rankings-2023.xlsx
+++ b/nhl-fantasy-rankings-2023.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\nhl-fantasy-scraper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9FE0B-9AE6-4436-BE5E-6733F51B6704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="5955" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHL.com" sheetId="1" r:id="rId1"/>
+    <sheet name="ESPN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ESPN!$A$1:$D$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NHL.com!$A$1:$D$251</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="690">
   <si>
     <t>Rank</t>
   </si>
@@ -1652,13 +1663,445 @@
   </si>
   <si>
     <t>Jeff Petry</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Tim Stutzle</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Jacob Trouba</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>Justin Faulk</t>
+  </si>
+  <si>
+    <t>Noah Hanifin</t>
+  </si>
+  <si>
+    <t>Eeli Tolvanen</t>
+  </si>
+  <si>
+    <t>Jake Walman</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Jared Spurgeon</t>
+  </si>
+  <si>
+    <t>Rafael Harvey-Pinard</t>
+  </si>
+  <si>
+    <t>Sean Couturier</t>
+  </si>
+  <si>
+    <t>Ivan Provorov</t>
+  </si>
+  <si>
+    <t>Juuso Valimaki</t>
+  </si>
+  <si>
+    <t>Neal Pionk</t>
+  </si>
+  <si>
+    <t>Tony DeAngelo</t>
+  </si>
+  <si>
+    <t>Lawson Crouse</t>
+  </si>
+  <si>
+    <t>Shayne Gostisbehere</t>
+  </si>
+  <si>
+    <t>Ryan Graves</t>
+  </si>
+  <si>
+    <t>Colton Parayko</t>
+  </si>
+  <si>
+    <t>Brayden McNabb</t>
+  </si>
+  <si>
+    <t>Philip Tomasino</t>
+  </si>
+  <si>
+    <t>Jake McCabe</t>
+  </si>
+  <si>
+    <t>Ben Chiarot</t>
+  </si>
+  <si>
+    <t>Matt Roy</t>
+  </si>
+  <si>
+    <t>JT Compher</t>
+  </si>
+  <si>
+    <t>Andrew Peeke</t>
+  </si>
+  <si>
+    <t>Esa Lindell</t>
+  </si>
+  <si>
+    <t>Cam Fowler</t>
+  </si>
+  <si>
+    <t>David Savard</t>
+  </si>
+  <si>
+    <t>Patrick Kane</t>
+  </si>
+  <si>
+    <t>Radko Gudas</t>
+  </si>
+  <si>
+    <t>Alexander Romanov</t>
+  </si>
+  <si>
+    <t>Frank Vatrano</t>
+  </si>
+  <si>
+    <t>Spencer Knight</t>
+  </si>
+  <si>
+    <t>Kirby Dach</t>
+  </si>
+  <si>
+    <t>Marcus Pettersson</t>
+  </si>
+  <si>
+    <t>Pavel Dorofeyev</t>
+  </si>
+  <si>
+    <t>Dominik Kubalik</t>
+  </si>
+  <si>
+    <t>Luke Evangelista</t>
+  </si>
+  <si>
+    <t>Adam Fantilli</t>
+  </si>
+  <si>
+    <t>Michael Bunting</t>
+  </si>
+  <si>
+    <t>Adam Boqvist</t>
+  </si>
+  <si>
+    <t>Scott Mayfield</t>
+  </si>
+  <si>
+    <t>Daniel Sprong</t>
+  </si>
+  <si>
+    <t>Kevin Shattenkirk</t>
+  </si>
+  <si>
+    <t>Damon Severson</t>
+  </si>
+  <si>
+    <t>Jani Hakanpaa</t>
+  </si>
+  <si>
+    <t>Travis Sanheim</t>
+  </si>
+  <si>
+    <t>Scott Laughton</t>
+  </si>
+  <si>
+    <t>Nick Jensen</t>
+  </si>
+  <si>
+    <t>Rasmus Ristolainen</t>
+  </si>
+  <si>
+    <t>Kaiden Guhle</t>
+  </si>
+  <si>
+    <t>Michael Rasmussen</t>
+  </si>
+  <si>
+    <t>Mark Giordano</t>
+  </si>
+  <si>
+    <t>Mattias Samuelsson</t>
+  </si>
+  <si>
+    <t>Oliver Bjorkstrand</t>
+  </si>
+  <si>
+    <t>Mikael Granlund</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>Jack Roslovic</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>Anthony Duclair</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>Brian Dumoulin</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>Adam Pelech</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>Martin Fehervary</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>Jonas Siegenthaler</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Ryan McDonagh</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>JJ Moser</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>Taylor Raddysh</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>Alexis Lafreniere</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>Jacob Peterson</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>Trevor van</t>
+  </si>
+  <si>
+    <t>Riemsdyk</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>Dillon Dube</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>Erik Gudbranson</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>Tyler Myers</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>Jonas Brodin</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>Jack McBain</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>Jean-Gabriel Pageau</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>Luke Schenn</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>Jamie Oleksiak</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>Fabian Lysell</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>Tanner Jeannot</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>Vladislav Gavrikov</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>Jesperi Kotkaniemi</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>Arthur Kaliyev</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>Jake Middleton</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>Dylan DeMelo</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>Jaccob Slavin</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>Josh Anderson</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>Ty Smith</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Ryan Pulock</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>Arber Xhekaj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1695,13 +2138,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1739,7 +2190,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1773,6 +2224,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1807,9 +2259,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1982,14 +2435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="22.41796875" customWidth="1"/>
+    <col min="3" max="3" width="12.41796875" customWidth="1"/>
+    <col min="4" max="4" width="9.5234375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +2463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +2477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2031,7 +2491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2045,7 +2505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2073,7 +2533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2087,7 +2547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2101,7 +2561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2129,7 +2589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2143,7 +2603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2157,7 +2617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2171,7 +2631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2185,7 +2645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2199,7 +2659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2213,7 +2673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2227,7 +2687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2241,7 +2701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2255,7 +2715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2269,7 +2729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2283,7 +2743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2297,7 +2757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -2311,7 +2771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2325,7 +2785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2339,7 +2799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2353,7 +2813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -2367,7 +2827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -2381,7 +2841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2395,7 +2855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -2409,7 +2869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -2423,7 +2883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -2437,7 +2897,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -2451,7 +2911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2465,7 +2925,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2479,7 +2939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -2493,7 +2953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -2507,7 +2967,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -2521,7 +2981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -2535,7 +2995,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -2549,7 +3009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -2563,7 +3023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2577,7 +3037,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -2591,7 +3051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -2605,7 +3065,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -2619,7 +3079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -2633,7 +3093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -2647,7 +3107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -2661,7 +3121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -2675,7 +3135,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -2689,7 +3149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -2703,7 +3163,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -2717,7 +3177,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -2731,7 +3191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>138</v>
       </c>
@@ -2745,7 +3205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -2759,7 +3219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -2773,7 +3233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>144</v>
       </c>
@@ -2787,7 +3247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -2801,7 +3261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -2815,7 +3275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>151</v>
       </c>
@@ -2829,7 +3289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -2843,7 +3303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>155</v>
       </c>
@@ -2857,7 +3317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -2871,7 +3331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>159</v>
       </c>
@@ -2885,7 +3345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -2899,7 +3359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>163</v>
       </c>
@@ -2913,7 +3373,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -2927,7 +3387,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>168</v>
       </c>
@@ -2941,7 +3401,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -2955,7 +3415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>172</v>
       </c>
@@ -2969,7 +3429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>174</v>
       </c>
@@ -2983,7 +3443,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>177</v>
       </c>
@@ -2997,7 +3457,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -3011,7 +3471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -3025,7 +3485,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -3039,7 +3499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -3053,7 +3513,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -3067,7 +3527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>189</v>
       </c>
@@ -3081,7 +3541,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -3095,7 +3555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -3109,7 +3569,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>196</v>
       </c>
@@ -3123,7 +3583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>198</v>
       </c>
@@ -3137,7 +3597,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>201</v>
       </c>
@@ -3151,7 +3611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -3165,7 +3625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -3179,7 +3639,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>209</v>
       </c>
@@ -3193,7 +3653,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -3207,7 +3667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>213</v>
       </c>
@@ -3221,7 +3681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -3235,7 +3695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>217</v>
       </c>
@@ -3249,7 +3709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -3263,7 +3723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -3277,7 +3737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -3291,7 +3751,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>225</v>
       </c>
@@ -3305,7 +3765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>227</v>
       </c>
@@ -3319,7 +3779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>229</v>
       </c>
@@ -3333,7 +3793,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>231</v>
       </c>
@@ -3347,7 +3807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -3361,7 +3821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>235</v>
       </c>
@@ -3375,7 +3835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>237</v>
       </c>
@@ -3389,7 +3849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>239</v>
       </c>
@@ -3403,7 +3863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>241</v>
       </c>
@@ -3417,7 +3877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>243</v>
       </c>
@@ -3431,7 +3891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>245</v>
       </c>
@@ -3445,7 +3905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>247</v>
       </c>
@@ -3459,7 +3919,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>249</v>
       </c>
@@ -3473,7 +3933,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -3487,7 +3947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -3501,7 +3961,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>255</v>
       </c>
@@ -3515,7 +3975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>257</v>
       </c>
@@ -3529,7 +3989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>259</v>
       </c>
@@ -3543,7 +4003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>261</v>
       </c>
@@ -3557,7 +4017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>263</v>
       </c>
@@ -3571,7 +4031,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>265</v>
       </c>
@@ -3585,7 +4045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>267</v>
       </c>
@@ -3599,7 +4059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>269</v>
       </c>
@@ -3613,7 +4073,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>271</v>
       </c>
@@ -3627,7 +4087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>273</v>
       </c>
@@ -3641,7 +4101,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>276</v>
       </c>
@@ -3655,7 +4115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>278</v>
       </c>
@@ -3669,7 +4129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>280</v>
       </c>
@@ -3683,7 +4143,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>282</v>
       </c>
@@ -3697,7 +4157,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>285</v>
       </c>
@@ -3711,7 +4171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>287</v>
       </c>
@@ -3725,7 +4185,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>289</v>
       </c>
@@ -3739,7 +4199,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>292</v>
       </c>
@@ -3753,7 +4213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>294</v>
       </c>
@@ -3767,7 +4227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>296</v>
       </c>
@@ -3781,7 +4241,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>298</v>
       </c>
@@ -3795,7 +4255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -3809,7 +4269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>302</v>
       </c>
@@ -3823,7 +4283,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>304</v>
       </c>
@@ -3837,7 +4297,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>306</v>
       </c>
@@ -3851,7 +4311,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>308</v>
       </c>
@@ -3865,7 +4325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>310</v>
       </c>
@@ -3879,7 +4339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>312</v>
       </c>
@@ -3893,7 +4353,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>314</v>
       </c>
@@ -3907,7 +4367,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>316</v>
       </c>
@@ -3921,7 +4381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>318</v>
       </c>
@@ -3935,7 +4395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>320</v>
       </c>
@@ -3949,7 +4409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>322</v>
       </c>
@@ -3963,7 +4423,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>324</v>
       </c>
@@ -3977,7 +4437,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>326</v>
       </c>
@@ -3991,7 +4451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>328</v>
       </c>
@@ -4005,7 +4465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>330</v>
       </c>
@@ -4019,7 +4479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>332</v>
       </c>
@@ -4033,7 +4493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>334</v>
       </c>
@@ -4047,7 +4507,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>336</v>
       </c>
@@ -4061,7 +4521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>338</v>
       </c>
@@ -4075,7 +4535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>340</v>
       </c>
@@ -4089,7 +4549,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>342</v>
       </c>
@@ -4103,7 +4563,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>344</v>
       </c>
@@ -4117,7 +4577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>346</v>
       </c>
@@ -4131,7 +4591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>348</v>
       </c>
@@ -4145,7 +4605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>350</v>
       </c>
@@ -4159,7 +4619,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>352</v>
       </c>
@@ -4173,7 +4633,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>354</v>
       </c>
@@ -4187,7 +4647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>356</v>
       </c>
@@ -4201,7 +4661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>358</v>
       </c>
@@ -4215,7 +4675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>360</v>
       </c>
@@ -4229,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>362</v>
       </c>
@@ -4243,7 +4703,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>364</v>
       </c>
@@ -4257,7 +4717,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>367</v>
       </c>
@@ -4271,7 +4731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>369</v>
       </c>
@@ -4285,7 +4745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>371</v>
       </c>
@@ -4299,7 +4759,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>373</v>
       </c>
@@ -4313,7 +4773,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>375</v>
       </c>
@@ -4327,7 +4787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>377</v>
       </c>
@@ -4341,7 +4801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>379</v>
       </c>
@@ -4355,7 +4815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>381</v>
       </c>
@@ -4369,7 +4829,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>383</v>
       </c>
@@ -4383,7 +4843,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>385</v>
       </c>
@@ -4397,7 +4857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>387</v>
       </c>
@@ -4411,7 +4871,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>389</v>
       </c>
@@ -4425,7 +4885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>391</v>
       </c>
@@ -4439,7 +4899,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>393</v>
       </c>
@@ -4453,7 +4913,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>395</v>
       </c>
@@ -4467,7 +4927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>397</v>
       </c>
@@ -4481,7 +4941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>399</v>
       </c>
@@ -4495,7 +4955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>401</v>
       </c>
@@ -4509,7 +4969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>403</v>
       </c>
@@ -4523,7 +4983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>405</v>
       </c>
@@ -4537,7 +4997,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>407</v>
       </c>
@@ -4551,7 +5011,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>409</v>
       </c>
@@ -4565,7 +5025,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>411</v>
       </c>
@@ -4579,7 +5039,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>413</v>
       </c>
@@ -4593,7 +5053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>415</v>
       </c>
@@ -4607,7 +5067,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>417</v>
       </c>
@@ -4621,7 +5081,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>419</v>
       </c>
@@ -4635,7 +5095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>421</v>
       </c>
@@ -4649,7 +5109,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>423</v>
       </c>
@@ -4663,7 +5123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>425</v>
       </c>
@@ -4677,7 +5137,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>427</v>
       </c>
@@ -4691,7 +5151,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>429</v>
       </c>
@@ -4705,7 +5165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>431</v>
       </c>
@@ -4719,7 +5179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>433</v>
       </c>
@@ -4733,7 +5193,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>436</v>
       </c>
@@ -4747,7 +5207,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>438</v>
       </c>
@@ -4761,7 +5221,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>440</v>
       </c>
@@ -4775,7 +5235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>442</v>
       </c>
@@ -4789,7 +5249,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>444</v>
       </c>
@@ -4803,7 +5263,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>446</v>
       </c>
@@ -4817,7 +5277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>448</v>
       </c>
@@ -4831,7 +5291,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>450</v>
       </c>
@@ -4845,7 +5305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>452</v>
       </c>
@@ -4859,7 +5319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>454</v>
       </c>
@@ -4873,7 +5333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>456</v>
       </c>
@@ -4887,7 +5347,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>458</v>
       </c>
@@ -4901,7 +5361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>460</v>
       </c>
@@ -4915,7 +5375,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>462</v>
       </c>
@@ -4929,7 +5389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>464</v>
       </c>
@@ -4943,7 +5403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>466</v>
       </c>
@@ -4957,7 +5417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>468</v>
       </c>
@@ -4971,7 +5431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>470</v>
       </c>
@@ -4985,7 +5445,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>472</v>
       </c>
@@ -4999,7 +5459,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>474</v>
       </c>
@@ -5013,7 +5473,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>476</v>
       </c>
@@ -5027,7 +5487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>478</v>
       </c>
@@ -5041,7 +5501,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>480</v>
       </c>
@@ -5055,7 +5515,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>482</v>
       </c>
@@ -5069,7 +5529,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>484</v>
       </c>
@@ -5083,7 +5543,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>486</v>
       </c>
@@ -5097,7 +5557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>488</v>
       </c>
@@ -5111,7 +5571,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>490</v>
       </c>
@@ -5125,7 +5585,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>492</v>
       </c>
@@ -5139,7 +5599,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>494</v>
       </c>
@@ -5153,7 +5613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>496</v>
       </c>
@@ -5167,7 +5627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>498</v>
       </c>
@@ -5181,7 +5641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>500</v>
       </c>
@@ -5195,7 +5655,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>502</v>
       </c>
@@ -5209,7 +5669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>504</v>
       </c>
@@ -5223,7 +5683,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>506</v>
       </c>
@@ -5237,7 +5697,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>508</v>
       </c>
@@ -5251,7 +5711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>510</v>
       </c>
@@ -5265,7 +5725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>512</v>
       </c>
@@ -5279,7 +5739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>514</v>
       </c>
@@ -5293,7 +5753,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>516</v>
       </c>
@@ -5307,7 +5767,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>518</v>
       </c>
@@ -5321,7 +5781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>520</v>
       </c>
@@ -5335,7 +5795,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>522</v>
       </c>
@@ -5349,7 +5809,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>524</v>
       </c>
@@ -5363,7 +5823,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>526</v>
       </c>
@@ -5377,7 +5837,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>528</v>
       </c>
@@ -5391,7 +5851,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>530</v>
       </c>
@@ -5405,7 +5865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>532</v>
       </c>
@@ -5419,7 +5879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>534</v>
       </c>
@@ -5433,7 +5893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>536</v>
       </c>
@@ -5447,7 +5907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>538</v>
       </c>
@@ -5461,7 +5921,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>540</v>
       </c>
@@ -5475,7 +5935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>542</v>
       </c>
@@ -5489,7 +5949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>544</v>
       </c>
@@ -5504,6 +5964,4241 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D251" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D301"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="19.3671875" customWidth="1"/>
+    <col min="3" max="3" width="10.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>547</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>550</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>325</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" t="s">
+        <v>471</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" t="s">
+        <v>481</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" t="s">
+        <v>485</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" t="s">
+        <v>297</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" t="s">
+        <v>553</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>217</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" t="s">
+        <v>554</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>223</v>
+      </c>
+      <c r="B93" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>225</v>
+      </c>
+      <c r="B94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>233</v>
+      </c>
+      <c r="B98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>237</v>
+      </c>
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>241</v>
+      </c>
+      <c r="B102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" t="s">
+        <v>248</v>
+      </c>
+      <c r="C103" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>249</v>
+      </c>
+      <c r="B106" t="s">
+        <v>523</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>251</v>
+      </c>
+      <c r="B107" t="s">
+        <v>286</v>
+      </c>
+      <c r="C107" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>253</v>
+      </c>
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>255</v>
+      </c>
+      <c r="B109" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>259</v>
+      </c>
+      <c r="B111" t="s">
+        <v>555</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>263</v>
+      </c>
+      <c r="B113" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>265</v>
+      </c>
+      <c r="B114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>267</v>
+      </c>
+      <c r="B115" t="s">
+        <v>388</v>
+      </c>
+      <c r="C115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>269</v>
+      </c>
+      <c r="B116" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>271</v>
+      </c>
+      <c r="B117" t="s">
+        <v>335</v>
+      </c>
+      <c r="C117" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>273</v>
+      </c>
+      <c r="B118" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" t="s">
+        <v>556</v>
+      </c>
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>280</v>
+      </c>
+      <c r="B121" t="s">
+        <v>434</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" t="s">
+        <v>281</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
+        <v>285</v>
+      </c>
+      <c r="B123" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
+        <v>287</v>
+      </c>
+      <c r="B124" t="s">
+        <v>558</v>
+      </c>
+      <c r="C124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
+        <v>289</v>
+      </c>
+      <c r="B125" t="s">
+        <v>164</v>
+      </c>
+      <c r="C125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
+        <v>292</v>
+      </c>
+      <c r="B126" t="s">
+        <v>559</v>
+      </c>
+      <c r="C126" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>294</v>
+      </c>
+      <c r="B127" t="s">
+        <v>380</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>296</v>
+      </c>
+      <c r="B128" t="s">
+        <v>560</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>298</v>
+      </c>
+      <c r="B129" t="s">
+        <v>545</v>
+      </c>
+      <c r="C129" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>300</v>
+      </c>
+      <c r="B130" t="s">
+        <v>370</v>
+      </c>
+      <c r="C130" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>302</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>304</v>
+      </c>
+      <c r="B132" t="s">
+        <v>218</v>
+      </c>
+      <c r="C132" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>306</v>
+      </c>
+      <c r="B133" t="s">
+        <v>244</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>308</v>
+      </c>
+      <c r="B134" t="s">
+        <v>430</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>310</v>
+      </c>
+      <c r="B135" t="s">
+        <v>365</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>312</v>
+      </c>
+      <c r="B136" t="s">
+        <v>313</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>314</v>
+      </c>
+      <c r="B137" t="s">
+        <v>390</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>316</v>
+      </c>
+      <c r="B138" t="s">
+        <v>240</v>
+      </c>
+      <c r="C138" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
+        <v>318</v>
+      </c>
+      <c r="B139" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
+        <v>320</v>
+      </c>
+      <c r="B140" t="s">
+        <v>561</v>
+      </c>
+      <c r="C140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
+        <v>322</v>
+      </c>
+      <c r="B141" t="s">
+        <v>398</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
+        <v>324</v>
+      </c>
+      <c r="B142" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
+        <v>326</v>
+      </c>
+      <c r="B143" t="s">
+        <v>562</v>
+      </c>
+      <c r="C143" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
+        <v>328</v>
+      </c>
+      <c r="B144" t="s">
+        <v>563</v>
+      </c>
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
+        <v>330</v>
+      </c>
+      <c r="B145" t="s">
+        <v>256</v>
+      </c>
+      <c r="C145" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
+        <v>332</v>
+      </c>
+      <c r="B146" t="s">
+        <v>372</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="s">
+        <v>334</v>
+      </c>
+      <c r="B147" t="s">
+        <v>357</v>
+      </c>
+      <c r="C147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="s">
+        <v>336</v>
+      </c>
+      <c r="B148" t="s">
+        <v>220</v>
+      </c>
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" t="s">
+        <v>338</v>
+      </c>
+      <c r="B149" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
+        <v>340</v>
+      </c>
+      <c r="B150" t="s">
+        <v>491</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
+        <v>342</v>
+      </c>
+      <c r="B151" t="s">
+        <v>404</v>
+      </c>
+      <c r="C151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
+        <v>344</v>
+      </c>
+      <c r="B152" t="s">
+        <v>564</v>
+      </c>
+      <c r="C152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>346</v>
+      </c>
+      <c r="B153" t="s">
+        <v>565</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
+        <v>348</v>
+      </c>
+      <c r="B154" t="s">
+        <v>507</v>
+      </c>
+      <c r="C154" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
+        <v>350</v>
+      </c>
+      <c r="B155" t="s">
+        <v>351</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>352</v>
+      </c>
+      <c r="B156" t="s">
+        <v>566</v>
+      </c>
+      <c r="C156" t="s">
+        <v>54</v>
+      </c>
+      <c r="D156" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
+        <v>354</v>
+      </c>
+      <c r="B157" t="s">
+        <v>475</v>
+      </c>
+      <c r="C157" t="s">
+        <v>59</v>
+      </c>
+      <c r="D157" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>356</v>
+      </c>
+      <c r="B158" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>358</v>
+      </c>
+      <c r="B159" t="s">
+        <v>290</v>
+      </c>
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
+        <v>360</v>
+      </c>
+      <c r="B160" t="s">
+        <v>567</v>
+      </c>
+      <c r="C160" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>362</v>
+      </c>
+      <c r="B161" t="s">
+        <v>250</v>
+      </c>
+      <c r="C161" t="s">
+        <v>59</v>
+      </c>
+      <c r="D161" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
+        <v>364</v>
+      </c>
+      <c r="B162" t="s">
+        <v>295</v>
+      </c>
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>367</v>
+      </c>
+      <c r="B163" t="s">
+        <v>568</v>
+      </c>
+      <c r="C163" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>369</v>
+      </c>
+      <c r="B164" t="s">
+        <v>319</v>
+      </c>
+      <c r="C164" t="s">
+        <v>54</v>
+      </c>
+      <c r="D164" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="s">
+        <v>371</v>
+      </c>
+      <c r="B165" t="s">
+        <v>453</v>
+      </c>
+      <c r="C165" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>373</v>
+      </c>
+      <c r="B166" t="s">
+        <v>386</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>375</v>
+      </c>
+      <c r="B167" t="s">
+        <v>569</v>
+      </c>
+      <c r="C167" t="s">
+        <v>54</v>
+      </c>
+      <c r="D167" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>377</v>
+      </c>
+      <c r="B168" t="s">
+        <v>541</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>379</v>
+      </c>
+      <c r="B169" t="s">
+        <v>226</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
+        <v>381</v>
+      </c>
+      <c r="B170" t="s">
+        <v>355</v>
+      </c>
+      <c r="C170" t="s">
+        <v>59</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="s">
+        <v>383</v>
+      </c>
+      <c r="B171" t="s">
+        <v>459</v>
+      </c>
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="s">
+        <v>385</v>
+      </c>
+      <c r="B172" t="s">
+        <v>424</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="s">
+        <v>387</v>
+      </c>
+      <c r="B173" t="s">
+        <v>406</v>
+      </c>
+      <c r="C173" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="s">
+        <v>389</v>
+      </c>
+      <c r="B174" t="s">
+        <v>412</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="s">
+        <v>391</v>
+      </c>
+      <c r="B175" t="s">
+        <v>451</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
+        <v>393</v>
+      </c>
+      <c r="B176" t="s">
+        <v>347</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" t="s">
+        <v>395</v>
+      </c>
+      <c r="B177" t="s">
+        <v>445</v>
+      </c>
+      <c r="C177" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" t="s">
+        <v>397</v>
+      </c>
+      <c r="B178" t="s">
+        <v>570</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" t="s">
+        <v>399</v>
+      </c>
+      <c r="B179" t="s">
+        <v>571</v>
+      </c>
+      <c r="C179" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" t="s">
+        <v>401</v>
+      </c>
+      <c r="B180" t="s">
+        <v>515</v>
+      </c>
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" t="s">
+        <v>403</v>
+      </c>
+      <c r="B181" t="s">
+        <v>437</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" t="s">
+        <v>405</v>
+      </c>
+      <c r="B182" t="s">
+        <v>572</v>
+      </c>
+      <c r="C182" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" t="s">
+        <v>407</v>
+      </c>
+      <c r="B183" t="s">
+        <v>158</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" t="s">
+        <v>409</v>
+      </c>
+      <c r="B184" t="s">
+        <v>180</v>
+      </c>
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" t="s">
+        <v>411</v>
+      </c>
+      <c r="B185" t="s">
+        <v>139</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" t="s">
+        <v>413</v>
+      </c>
+      <c r="B186" t="s">
+        <v>343</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" t="s">
+        <v>415</v>
+      </c>
+      <c r="B187" t="s">
+        <v>301</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" t="s">
+        <v>417</v>
+      </c>
+      <c r="B188" t="s">
+        <v>384</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" t="s">
+        <v>419</v>
+      </c>
+      <c r="B189" t="s">
+        <v>573</v>
+      </c>
+      <c r="C189" t="s">
+        <v>54</v>
+      </c>
+      <c r="D189" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" t="s">
+        <v>421</v>
+      </c>
+      <c r="B190" t="s">
+        <v>317</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" t="s">
+        <v>423</v>
+      </c>
+      <c r="B191" t="s">
+        <v>447</v>
+      </c>
+      <c r="C191" t="s">
+        <v>54</v>
+      </c>
+      <c r="D191" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" t="s">
+        <v>425</v>
+      </c>
+      <c r="B192" t="s">
+        <v>402</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" t="s">
+        <v>427</v>
+      </c>
+      <c r="B193" t="s">
+        <v>418</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" t="s">
+        <v>429</v>
+      </c>
+      <c r="B194" t="s">
+        <v>420</v>
+      </c>
+      <c r="C194" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" t="s">
+        <v>431</v>
+      </c>
+      <c r="B195" t="s">
+        <v>574</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" t="s">
+        <v>433</v>
+      </c>
+      <c r="B196" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" t="s">
+        <v>436</v>
+      </c>
+      <c r="B197" t="s">
+        <v>575</v>
+      </c>
+      <c r="C197" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" t="s">
+        <v>438</v>
+      </c>
+      <c r="B198" t="s">
+        <v>576</v>
+      </c>
+      <c r="C198" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" t="s">
+        <v>440</v>
+      </c>
+      <c r="B199" t="s">
+        <v>577</v>
+      </c>
+      <c r="C199" t="s">
+        <v>54</v>
+      </c>
+      <c r="D199" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" t="s">
+        <v>442</v>
+      </c>
+      <c r="B200" t="s">
+        <v>578</v>
+      </c>
+      <c r="C200" t="s">
+        <v>54</v>
+      </c>
+      <c r="D200" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" t="s">
+        <v>444</v>
+      </c>
+      <c r="B201" t="s">
+        <v>465</v>
+      </c>
+      <c r="C201" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" t="s">
+        <v>446</v>
+      </c>
+      <c r="B202" t="s">
+        <v>428</v>
+      </c>
+      <c r="C202" t="s">
+        <v>54</v>
+      </c>
+      <c r="D202" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" t="s">
+        <v>448</v>
+      </c>
+      <c r="B203" t="s">
+        <v>579</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" t="s">
+        <v>450</v>
+      </c>
+      <c r="B204" t="s">
+        <v>580</v>
+      </c>
+      <c r="C204" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" t="s">
+        <v>452</v>
+      </c>
+      <c r="B205" t="s">
+        <v>581</v>
+      </c>
+      <c r="C205" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" t="s">
+        <v>454</v>
+      </c>
+      <c r="B206" t="s">
+        <v>582</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" t="s">
+        <v>456</v>
+      </c>
+      <c r="B207" t="s">
+        <v>443</v>
+      </c>
+      <c r="C207" t="s">
+        <v>59</v>
+      </c>
+      <c r="D207" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" t="s">
+        <v>458</v>
+      </c>
+      <c r="B208" t="s">
+        <v>96</v>
+      </c>
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" t="s">
+        <v>460</v>
+      </c>
+      <c r="B209" t="s">
+        <v>254</v>
+      </c>
+      <c r="C209" t="s">
+        <v>26</v>
+      </c>
+      <c r="D209" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" t="s">
+        <v>462</v>
+      </c>
+      <c r="B210" t="s">
+        <v>583</v>
+      </c>
+      <c r="C210" t="s">
+        <v>59</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" t="s">
+        <v>464</v>
+      </c>
+      <c r="B211" t="s">
+        <v>483</v>
+      </c>
+      <c r="C211" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" t="s">
+        <v>466</v>
+      </c>
+      <c r="B212" t="s">
+        <v>584</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" t="s">
+        <v>468</v>
+      </c>
+      <c r="B213" t="s">
+        <v>585</v>
+      </c>
+      <c r="C213" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" t="s">
+        <v>470</v>
+      </c>
+      <c r="B214" t="s">
+        <v>329</v>
+      </c>
+      <c r="C214" t="s">
+        <v>59</v>
+      </c>
+      <c r="D214" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" t="s">
+        <v>472</v>
+      </c>
+      <c r="B215" t="s">
+        <v>469</v>
+      </c>
+      <c r="C215" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" t="s">
+        <v>474</v>
+      </c>
+      <c r="B216" t="s">
+        <v>586</v>
+      </c>
+      <c r="C216" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" t="s">
+        <v>476</v>
+      </c>
+      <c r="B217" t="s">
+        <v>426</v>
+      </c>
+      <c r="C217" t="s">
+        <v>54</v>
+      </c>
+      <c r="D217" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" t="s">
+        <v>478</v>
+      </c>
+      <c r="B218" t="s">
+        <v>587</v>
+      </c>
+      <c r="C218" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" t="s">
+        <v>480</v>
+      </c>
+      <c r="B219" t="s">
+        <v>588</v>
+      </c>
+      <c r="C219" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" t="s">
+        <v>482</v>
+      </c>
+      <c r="B220" t="s">
+        <v>589</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" t="s">
+        <v>484</v>
+      </c>
+      <c r="B221" t="s">
+        <v>590</v>
+      </c>
+      <c r="C221" t="s">
+        <v>26</v>
+      </c>
+      <c r="D221" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" t="s">
+        <v>486</v>
+      </c>
+      <c r="B222" t="s">
+        <v>591</v>
+      </c>
+      <c r="C222" t="s">
+        <v>54</v>
+      </c>
+      <c r="D222" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" t="s">
+        <v>488</v>
+      </c>
+      <c r="B223" t="s">
+        <v>307</v>
+      </c>
+      <c r="C223" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" t="s">
+        <v>490</v>
+      </c>
+      <c r="B224" t="s">
+        <v>592</v>
+      </c>
+      <c r="C224" t="s">
+        <v>54</v>
+      </c>
+      <c r="D224" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" t="s">
+        <v>492</v>
+      </c>
+      <c r="B225" t="s">
+        <v>593</v>
+      </c>
+      <c r="C225" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" t="s">
+        <v>494</v>
+      </c>
+      <c r="B226" t="s">
+        <v>594</v>
+      </c>
+      <c r="C226" t="s">
+        <v>54</v>
+      </c>
+      <c r="D226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" t="s">
+        <v>496</v>
+      </c>
+      <c r="B227" t="s">
+        <v>595</v>
+      </c>
+      <c r="C227" t="s">
+        <v>54</v>
+      </c>
+      <c r="D227" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" t="s">
+        <v>498</v>
+      </c>
+      <c r="B228" t="s">
+        <v>596</v>
+      </c>
+      <c r="C228" t="s">
+        <v>54</v>
+      </c>
+      <c r="D228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" t="s">
+        <v>500</v>
+      </c>
+      <c r="B229" t="s">
+        <v>597</v>
+      </c>
+      <c r="C229" t="s">
+        <v>54</v>
+      </c>
+      <c r="D229" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" t="s">
+        <v>502</v>
+      </c>
+      <c r="B230" t="s">
+        <v>432</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" t="s">
+        <v>504</v>
+      </c>
+      <c r="B231" t="s">
+        <v>598</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" t="s">
+        <v>506</v>
+      </c>
+      <c r="B232" t="s">
+        <v>345</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" t="s">
+        <v>508</v>
+      </c>
+      <c r="B233" t="s">
+        <v>599</v>
+      </c>
+      <c r="C233" t="s">
+        <v>54</v>
+      </c>
+      <c r="D233" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" t="s">
+        <v>510</v>
+      </c>
+      <c r="B234" t="s">
+        <v>422</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" t="s">
+        <v>512</v>
+      </c>
+      <c r="B235" t="s">
+        <v>600</v>
+      </c>
+      <c r="C235" t="s">
+        <v>54</v>
+      </c>
+      <c r="D235" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" t="s">
+        <v>514</v>
+      </c>
+      <c r="B236" t="s">
+        <v>467</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" t="s">
+        <v>516</v>
+      </c>
+      <c r="B237" t="s">
+        <v>252</v>
+      </c>
+      <c r="C237" t="s">
+        <v>59</v>
+      </c>
+      <c r="D237" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" t="s">
+        <v>518</v>
+      </c>
+      <c r="B238" t="s">
+        <v>368</v>
+      </c>
+      <c r="C238" t="s">
+        <v>54</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" t="s">
+        <v>520</v>
+      </c>
+      <c r="B239" t="s">
+        <v>439</v>
+      </c>
+      <c r="C239" t="s">
+        <v>59</v>
+      </c>
+      <c r="D239" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" t="s">
+        <v>522</v>
+      </c>
+      <c r="B240" t="s">
+        <v>311</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" t="s">
+        <v>524</v>
+      </c>
+      <c r="B241" t="s">
+        <v>463</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" t="s">
+        <v>526</v>
+      </c>
+      <c r="B242" t="s">
+        <v>601</v>
+      </c>
+      <c r="C242" t="s">
+        <v>54</v>
+      </c>
+      <c r="D242" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" t="s">
+        <v>528</v>
+      </c>
+      <c r="B243" t="s">
+        <v>288</v>
+      </c>
+      <c r="C243" t="s">
+        <v>26</v>
+      </c>
+      <c r="D243" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" t="s">
+        <v>530</v>
+      </c>
+      <c r="B244" t="s">
+        <v>529</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" t="s">
+        <v>532</v>
+      </c>
+      <c r="B245" t="s">
+        <v>123</v>
+      </c>
+      <c r="C245" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" t="s">
+        <v>534</v>
+      </c>
+      <c r="B246" t="s">
+        <v>602</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" t="s">
+        <v>536</v>
+      </c>
+      <c r="B247" t="s">
+        <v>603</v>
+      </c>
+      <c r="C247" t="s">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" t="s">
+        <v>538</v>
+      </c>
+      <c r="B248" t="s">
+        <v>604</v>
+      </c>
+      <c r="C248" t="s">
+        <v>54</v>
+      </c>
+      <c r="D248" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" t="s">
+        <v>540</v>
+      </c>
+      <c r="B249" t="s">
+        <v>382</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" t="s">
+        <v>542</v>
+      </c>
+      <c r="B250" t="s">
+        <v>605</v>
+      </c>
+      <c r="C250" t="s">
+        <v>16</v>
+      </c>
+      <c r="D250" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" t="s">
+        <v>544</v>
+      </c>
+      <c r="B251" t="s">
+        <v>606</v>
+      </c>
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" t="s">
+        <v>607</v>
+      </c>
+      <c r="B252" t="s">
+        <v>608</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" t="s">
+        <v>609</v>
+      </c>
+      <c r="B253" t="s">
+        <v>610</v>
+      </c>
+      <c r="C253" t="s">
+        <v>26</v>
+      </c>
+      <c r="D253" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" t="s">
+        <v>611</v>
+      </c>
+      <c r="B254" t="s">
+        <v>612</v>
+      </c>
+      <c r="C254" t="s">
+        <v>54</v>
+      </c>
+      <c r="D254" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" t="s">
+        <v>613</v>
+      </c>
+      <c r="B255" t="s">
+        <v>614</v>
+      </c>
+      <c r="C255" t="s">
+        <v>54</v>
+      </c>
+      <c r="D255" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" t="s">
+        <v>615</v>
+      </c>
+      <c r="B256" t="s">
+        <v>349</v>
+      </c>
+      <c r="C256" t="s">
+        <v>26</v>
+      </c>
+      <c r="D256" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" t="s">
+        <v>616</v>
+      </c>
+      <c r="B257" t="s">
+        <v>617</v>
+      </c>
+      <c r="C257" t="s">
+        <v>54</v>
+      </c>
+      <c r="D257" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" t="s">
+        <v>618</v>
+      </c>
+      <c r="B258" t="s">
+        <v>400</v>
+      </c>
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+      <c r="D258" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" t="s">
+        <v>619</v>
+      </c>
+      <c r="B259" t="s">
+        <v>620</v>
+      </c>
+      <c r="C259" t="s">
+        <v>54</v>
+      </c>
+      <c r="D259" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" t="s">
+        <v>621</v>
+      </c>
+      <c r="B260" t="s">
+        <v>410</v>
+      </c>
+      <c r="C260" t="s">
+        <v>59</v>
+      </c>
+      <c r="D260" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" t="s">
+        <v>622</v>
+      </c>
+      <c r="B261" t="s">
+        <v>623</v>
+      </c>
+      <c r="C261" t="s">
+        <v>54</v>
+      </c>
+      <c r="D261" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" t="s">
+        <v>624</v>
+      </c>
+      <c r="B262" t="s">
+        <v>625</v>
+      </c>
+      <c r="C262" t="s">
+        <v>54</v>
+      </c>
+      <c r="D262" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" t="s">
+        <v>626</v>
+      </c>
+      <c r="B263" t="s">
+        <v>212</v>
+      </c>
+      <c r="C263" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" t="s">
+        <v>627</v>
+      </c>
+      <c r="B264" t="s">
+        <v>234</v>
+      </c>
+      <c r="C264" t="s">
+        <v>59</v>
+      </c>
+      <c r="D264" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" t="s">
+        <v>628</v>
+      </c>
+      <c r="B265" t="s">
+        <v>629</v>
+      </c>
+      <c r="C265" t="s">
+        <v>16</v>
+      </c>
+      <c r="D265" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" t="s">
+        <v>630</v>
+      </c>
+      <c r="B266" t="s">
+        <v>631</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+      <c r="D266" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" t="s">
+        <v>632</v>
+      </c>
+      <c r="B267" t="s">
+        <v>633</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" t="s">
+        <v>634</v>
+      </c>
+      <c r="B268" t="s">
+        <v>635</v>
+      </c>
+      <c r="C268" t="s">
+        <v>636</v>
+      </c>
+      <c r="D268" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" t="s">
+        <v>637</v>
+      </c>
+      <c r="B269" t="s">
+        <v>638</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" t="s">
+        <v>639</v>
+      </c>
+      <c r="B270" t="s">
+        <v>337</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" t="s">
+        <v>640</v>
+      </c>
+      <c r="B271" t="s">
+        <v>359</v>
+      </c>
+      <c r="C271" t="s">
+        <v>59</v>
+      </c>
+      <c r="D271" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" t="s">
+        <v>641</v>
+      </c>
+      <c r="B272" t="s">
+        <v>642</v>
+      </c>
+      <c r="C272" t="s">
+        <v>54</v>
+      </c>
+      <c r="D272" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" t="s">
+        <v>643</v>
+      </c>
+      <c r="B273" t="s">
+        <v>644</v>
+      </c>
+      <c r="C273" t="s">
+        <v>54</v>
+      </c>
+      <c r="D273" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" t="s">
+        <v>645</v>
+      </c>
+      <c r="B274" t="s">
+        <v>646</v>
+      </c>
+      <c r="C274" t="s">
+        <v>54</v>
+      </c>
+      <c r="D274" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" t="s">
+        <v>647</v>
+      </c>
+      <c r="B275" t="s">
+        <v>505</v>
+      </c>
+      <c r="C275" t="s">
+        <v>26</v>
+      </c>
+      <c r="D275" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" t="s">
+        <v>648</v>
+      </c>
+      <c r="B276" t="s">
+        <v>649</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" t="s">
+        <v>650</v>
+      </c>
+      <c r="B277" t="s">
+        <v>651</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" t="s">
+        <v>652</v>
+      </c>
+      <c r="B278" t="s">
+        <v>323</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" t="s">
+        <v>653</v>
+      </c>
+      <c r="B279" t="s">
+        <v>525</v>
+      </c>
+      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+      <c r="D279" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" t="s">
+        <v>654</v>
+      </c>
+      <c r="B280" t="s">
+        <v>655</v>
+      </c>
+      <c r="C280" t="s">
+        <v>54</v>
+      </c>
+      <c r="D280" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" t="s">
+        <v>656</v>
+      </c>
+      <c r="B281" t="s">
+        <v>414</v>
+      </c>
+      <c r="C281" t="s">
+        <v>59</v>
+      </c>
+      <c r="D281" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" t="s">
+        <v>657</v>
+      </c>
+      <c r="B282" t="s">
+        <v>658</v>
+      </c>
+      <c r="C282" t="s">
+        <v>54</v>
+      </c>
+      <c r="D282" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" t="s">
+        <v>659</v>
+      </c>
+      <c r="B283" t="s">
+        <v>660</v>
+      </c>
+      <c r="C283" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" t="s">
+        <v>661</v>
+      </c>
+      <c r="B284" t="s">
+        <v>461</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" t="s">
+        <v>662</v>
+      </c>
+      <c r="B285" t="s">
+        <v>663</v>
+      </c>
+      <c r="C285" t="s">
+        <v>16</v>
+      </c>
+      <c r="D285" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" t="s">
+        <v>664</v>
+      </c>
+      <c r="B286" t="s">
+        <v>392</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" t="s">
+        <v>665</v>
+      </c>
+      <c r="B287" t="s">
+        <v>666</v>
+      </c>
+      <c r="C287" t="s">
+        <v>54</v>
+      </c>
+      <c r="D287" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" t="s">
+        <v>667</v>
+      </c>
+      <c r="B288" t="s">
+        <v>270</v>
+      </c>
+      <c r="C288" t="s">
+        <v>54</v>
+      </c>
+      <c r="D288" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" t="s">
+        <v>668</v>
+      </c>
+      <c r="B289" t="s">
+        <v>669</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" t="s">
+        <v>670</v>
+      </c>
+      <c r="B290" t="s">
+        <v>489</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291" t="s">
+        <v>671</v>
+      </c>
+      <c r="B291" t="s">
+        <v>672</v>
+      </c>
+      <c r="C291" t="s">
+        <v>16</v>
+      </c>
+      <c r="D291" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" t="s">
+        <v>673</v>
+      </c>
+      <c r="B292" t="s">
+        <v>315</v>
+      </c>
+      <c r="C292" t="s">
+        <v>54</v>
+      </c>
+      <c r="D292" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" t="s">
+        <v>674</v>
+      </c>
+      <c r="B293" t="s">
+        <v>675</v>
+      </c>
+      <c r="C293" t="s">
+        <v>54</v>
+      </c>
+      <c r="D293" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294" t="s">
+        <v>676</v>
+      </c>
+      <c r="B294" t="s">
+        <v>677</v>
+      </c>
+      <c r="C294" t="s">
+        <v>54</v>
+      </c>
+      <c r="D294" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295" t="s">
+        <v>678</v>
+      </c>
+      <c r="B295" t="s">
+        <v>679</v>
+      </c>
+      <c r="C295" t="s">
+        <v>54</v>
+      </c>
+      <c r="D295" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296" t="s">
+        <v>680</v>
+      </c>
+      <c r="B296" t="s">
+        <v>681</v>
+      </c>
+      <c r="C296" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" t="s">
+        <v>682</v>
+      </c>
+      <c r="B297" t="s">
+        <v>499</v>
+      </c>
+      <c r="C297" t="s">
+        <v>59</v>
+      </c>
+      <c r="D297" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298" t="s">
+        <v>683</v>
+      </c>
+      <c r="B298" t="s">
+        <v>539</v>
+      </c>
+      <c r="C298" t="s">
+        <v>54</v>
+      </c>
+      <c r="D298" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299" t="s">
+        <v>684</v>
+      </c>
+      <c r="B299" t="s">
+        <v>685</v>
+      </c>
+      <c r="C299" t="s">
+        <v>54</v>
+      </c>
+      <c r="D299" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300" t="s">
+        <v>686</v>
+      </c>
+      <c r="B300" t="s">
+        <v>687</v>
+      </c>
+      <c r="C300" t="s">
+        <v>54</v>
+      </c>
+      <c r="D300" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301" t="s">
+        <v>688</v>
+      </c>
+      <c r="B301" t="s">
+        <v>689</v>
+      </c>
+      <c r="C301" t="s">
+        <v>54</v>
+      </c>
+      <c r="D301" t="s">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D301" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nhl-fantasy-rankings-2023.xlsx
+++ b/nhl-fantasy-rankings-2023.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\nhl-fantasy-scraper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E6DA8E-94E9-48A3-8476-CC6051A7F7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="5955" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHL.com" sheetId="1" r:id="rId1"/>
     <sheet name="ESPN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="388">
   <si>
     <t>Rank</t>
   </si>
@@ -290,7 +296,7 @@
     <t>Joe Pavelski</t>
   </si>
   <si>
-    <t>JT Miller</t>
+    <t>J.T. Miller</t>
   </si>
   <si>
     <t>C/LW/RW</t>
@@ -380,12 +386,6 @@
     <t>Jeremy Swayman</t>
   </si>
   <si>
-    <t>Joel Eriksson</t>
-  </si>
-  <si>
-    <t>Ek</t>
-  </si>
-  <si>
     <t>Vince Dunn</t>
   </si>
   <si>
@@ -851,7 +851,7 @@
     <t>Calen Addison</t>
   </si>
   <si>
-    <t>TJ Oshie</t>
+    <t>T.J. Oshie</t>
   </si>
   <si>
     <t>Alexis Lafrenière</t>
@@ -920,6 +920,9 @@
     <t>Jacob Trouba</t>
   </si>
   <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
     <t>MON</t>
   </si>
   <si>
@@ -989,7 +992,7 @@
     <t>Matt Roy</t>
   </si>
   <si>
-    <t>JT Compher</t>
+    <t>J.T. Compher</t>
   </si>
   <si>
     <t>Andrew Peeke</t>
@@ -1109,7 +1112,7 @@
     <t>Ryan McDonagh</t>
   </si>
   <si>
-    <t>JJ Moser</t>
+    <t>J.J. Moser</t>
   </si>
   <si>
     <t>Taylor Raddysh</t>
@@ -1121,10 +1124,7 @@
     <t>Jacob Peterson</t>
   </si>
   <si>
-    <t>Trevor van</t>
-  </si>
-  <si>
-    <t>Riemsdyk</t>
+    <t>Trevor van Riemsdyk</t>
   </si>
   <si>
     <t>Dillon Dube</t>
@@ -1190,8 +1190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,13 +1228,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1272,7 +1280,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1306,6 +1314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1340,9 +1349,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1515,14 +1525,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="25.3125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1550,7 +1565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1564,7 +1579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1620,7 +1635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1704,7 +1719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1732,7 +1747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1746,7 +1761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1774,7 +1789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1788,7 +1803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1802,7 +1817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1816,7 +1831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1872,7 +1887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1900,7 +1915,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1928,7 +1943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1956,7 +1971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1970,7 +1985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1984,7 +1999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1998,7 +2013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2012,7 +2027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2026,7 +2041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2054,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2068,7 +2083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2082,7 +2097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2110,7 +2125,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2124,7 +2139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2138,7 +2153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2152,7 +2167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2166,7 +2181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2180,7 +2195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2194,7 +2209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2208,7 +2223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2222,7 +2237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2236,7 +2251,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2250,7 +2265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2264,7 +2279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2278,7 +2293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2306,7 +2321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2320,7 +2335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2334,7 +2349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2348,7 +2363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2362,7 +2377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2376,7 +2391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2390,7 +2405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2404,7 +2419,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2418,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2432,7 +2447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2446,7 +2461,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2460,7 +2475,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2474,7 +2489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2488,7 +2503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2502,7 +2517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2516,7 +2531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2530,7 +2545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2544,7 +2559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2558,7 +2573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2572,7 +2587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2586,7 +2601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2600,7 +2615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2628,7 +2643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2642,7 +2657,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2656,7 +2671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2670,7 +2685,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2684,40 +2699,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
         <v>92</v>
@@ -2726,12 +2741,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
         <v>22</v>
@@ -2740,12 +2755,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
         <v>41</v>
@@ -2754,12 +2769,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
         <v>38</v>
@@ -2768,12 +2783,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
@@ -2782,12 +2797,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
         <v>19</v>
@@ -2796,12 +2811,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
         <v>41</v>
@@ -2810,12 +2825,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
         <v>57</v>
@@ -2824,12 +2839,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2838,12 +2853,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
         <v>57</v>
@@ -2852,12 +2867,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2866,12 +2881,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
         <v>41</v>
@@ -2880,12 +2895,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
         <v>41</v>
@@ -2894,12 +2909,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -2908,12 +2923,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s">
         <v>22</v>
@@ -2922,12 +2937,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
         <v>57</v>
@@ -2936,12 +2951,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
         <v>41</v>
@@ -2950,12 +2965,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
         <v>57</v>
@@ -2964,12 +2979,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2978,12 +2993,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C105" t="s">
         <v>38</v>
@@ -2992,12 +3007,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
         <v>41</v>
@@ -3006,12 +3021,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
         <v>41</v>
@@ -3020,12 +3035,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
         <v>57</v>
@@ -3034,12 +3049,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
         <v>38</v>
@@ -3048,12 +3063,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -3062,12 +3077,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C111" t="s">
         <v>22</v>
@@ -3076,12 +3091,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
@@ -3090,12 +3105,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3104,12 +3119,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
         <v>38</v>
@@ -3118,12 +3133,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3132,12 +3147,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C116" t="s">
         <v>38</v>
@@ -3146,12 +3161,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C117" t="s">
         <v>38</v>
@@ -3160,26 +3175,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
         <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C119" t="s">
         <v>41</v>
@@ -3188,12 +3203,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
         <v>38</v>
@@ -3202,40 +3217,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C123" t="s">
         <v>38</v>
@@ -3244,12 +3259,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
@@ -3258,26 +3273,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
         <v>57</v>
       </c>
       <c r="D125" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C126" t="s">
         <v>22</v>
@@ -3286,12 +3301,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -3300,26 +3315,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3328,12 +3343,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C130" t="s">
         <v>92</v>
@@ -3342,12 +3357,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3356,12 +3371,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3370,12 +3385,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C133" t="s">
         <v>22</v>
@@ -3384,12 +3399,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C134" t="s">
         <v>22</v>
@@ -3398,12 +3413,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
@@ -3412,26 +3427,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C136" t="s">
         <v>57</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C137" t="s">
         <v>38</v>
@@ -3440,12 +3455,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C138" t="s">
         <v>57</v>
@@ -3454,12 +3469,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
         <v>38</v>
@@ -3468,12 +3483,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C140" t="s">
         <v>57</v>
@@ -3482,40 +3497,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3524,12 +3539,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C144" t="s">
         <v>41</v>
@@ -3538,12 +3553,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C145" t="s">
         <v>41</v>
@@ -3552,12 +3567,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C146" t="s">
         <v>38</v>
@@ -3566,12 +3581,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C147" t="s">
         <v>38</v>
@@ -3580,12 +3595,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C148" t="s">
         <v>92</v>
@@ -3594,12 +3609,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C149" t="s">
         <v>38</v>
@@ -3608,12 +3623,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3622,12 +3637,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C151" t="s">
         <v>57</v>
@@ -3636,12 +3651,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3650,12 +3665,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -3664,12 +3679,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
@@ -3678,12 +3693,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
@@ -3692,26 +3707,26 @@
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C156" t="s">
         <v>57</v>
       </c>
       <c r="D156" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C157" t="s">
         <v>41</v>
@@ -3720,12 +3735,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C158" t="s">
         <v>38</v>
@@ -3734,12 +3749,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C159" t="s">
         <v>41</v>
@@ -3748,12 +3763,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C160" t="s">
         <v>38</v>
@@ -3762,40 +3777,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C161" t="s">
         <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C163" t="s">
         <v>38</v>
@@ -3804,12 +3819,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C164" t="s">
         <v>38</v>
@@ -3818,12 +3833,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C165" t="s">
         <v>19</v>
@@ -3832,12 +3847,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3846,12 +3861,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C167" t="s">
         <v>41</v>
@@ -3860,12 +3875,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
@@ -3874,12 +3889,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
@@ -3888,12 +3903,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
@@ -3902,26 +3917,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
@@ -3930,12 +3945,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C173" t="s">
         <v>41</v>
@@ -3944,12 +3959,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C174" t="s">
         <v>57</v>
@@ -3958,12 +3973,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C175" t="s">
         <v>8</v>
@@ -3972,12 +3987,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C176" t="s">
         <v>57</v>
@@ -3986,12 +4001,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4000,12 +4015,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s">
         <v>57</v>
@@ -4014,12 +4029,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C179" t="s">
         <v>19</v>
@@ -4028,12 +4043,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4042,12 +4057,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C181" t="s">
         <v>38</v>
@@ -4056,12 +4071,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C182" t="s">
         <v>38</v>
@@ -4070,12 +4085,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C183" t="s">
         <v>41</v>
@@ -4084,12 +4099,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C184" t="s">
         <v>41</v>
@@ -4098,26 +4113,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C186" t="s">
         <v>41</v>
@@ -4126,12 +4141,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C187" t="s">
         <v>57</v>
@@ -4140,12 +4155,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C188" t="s">
         <v>12</v>
@@ -4154,12 +4169,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C189" t="s">
         <v>38</v>
@@ -4168,26 +4183,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C190" t="s">
         <v>8</v>
       </c>
       <c r="D190" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>
@@ -4196,12 +4211,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C192" t="s">
         <v>38</v>
@@ -4210,12 +4225,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C193" t="s">
         <v>38</v>
@@ -4224,12 +4239,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4238,12 +4253,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C195" t="s">
         <v>22</v>
@@ -4252,40 +4267,40 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
       </c>
       <c r="D197" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C198" t="s">
         <v>41</v>
@@ -4294,12 +4309,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C199" t="s">
         <v>57</v>
@@ -4308,40 +4323,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C200" t="s">
         <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C201" t="s">
         <v>38</v>
       </c>
       <c r="D201" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C202" t="s">
         <v>38</v>
@@ -4350,12 +4365,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C203" t="s">
         <v>8</v>
@@ -4364,12 +4379,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4378,12 +4393,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C205" t="s">
         <v>38</v>
@@ -4392,12 +4407,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C206" t="s">
         <v>38</v>
@@ -4406,26 +4421,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C208" t="s">
         <v>19</v>
@@ -4434,26 +4449,26 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C210" t="s">
         <v>8</v>
@@ -4462,12 +4477,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C211" t="s">
         <v>38</v>
@@ -4476,12 +4491,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C212" t="s">
         <v>22</v>
@@ -4490,12 +4505,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C213" t="s">
         <v>38</v>
@@ -4504,26 +4519,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C214" t="s">
         <v>38</v>
       </c>
       <c r="D214" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
@@ -4532,26 +4547,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C216" t="s">
         <v>41</v>
       </c>
       <c r="D216" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C217" t="s">
         <v>19</v>
@@ -4560,12 +4575,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C218" t="s">
         <v>57</v>
@@ -4574,26 +4589,26 @@
         <v>116</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C219" t="s">
         <v>38</v>
       </c>
       <c r="D219" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C220" t="s">
         <v>38</v>
@@ -4602,26 +4617,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C221" t="s">
         <v>57</v>
       </c>
       <c r="D221" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C222" t="s">
         <v>12</v>
@@ -4630,54 +4645,54 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C223" t="s">
         <v>57</v>
       </c>
       <c r="D223" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
       </c>
       <c r="D225" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C226" t="s">
         <v>57</v>
@@ -4686,12 +4701,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C227" t="s">
         <v>57</v>
@@ -4700,12 +4715,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C228" t="s">
         <v>41</v>
@@ -4714,12 +4729,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C229" t="s">
         <v>57</v>
@@ -4728,12 +4743,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C230" t="s">
         <v>8</v>
@@ -4742,12 +4757,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C231" t="s">
         <v>92</v>
@@ -4756,12 +4771,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C232" t="s">
         <v>38</v>
@@ -4770,12 +4785,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C233" t="s">
         <v>38</v>
@@ -4784,12 +4799,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C234" t="s">
         <v>22</v>
@@ -4798,12 +4813,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C235" t="s">
         <v>57</v>
@@ -4812,12 +4827,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -4826,26 +4841,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4854,12 +4869,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C239" t="s">
         <v>12</v>
@@ -4868,12 +4883,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C240" t="s">
         <v>57</v>
@@ -4882,26 +4897,26 @@
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C241" t="s">
         <v>19</v>
       </c>
       <c r="D241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C242" t="s">
         <v>38</v>
@@ -4910,26 +4925,26 @@
         <v>106</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
       </c>
       <c r="D243" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4938,12 +4953,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4952,12 +4967,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C246" t="s">
         <v>41</v>
@@ -4966,12 +4981,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4980,26 +4995,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C248" t="s">
         <v>38</v>
       </c>
       <c r="D248" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C249" t="s">
         <v>92</v>
@@ -5008,12 +5023,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C250" t="s">
         <v>19</v>
@@ -5022,12 +5037,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C251" t="s">
         <v>38</v>
@@ -5042,14 +5057,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="31.89453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5063,7 +5083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5077,7 +5097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5091,7 +5111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5105,7 +5125,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5119,7 +5139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5133,7 +5153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5147,7 +5167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5161,7 +5181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5175,7 +5195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5189,7 +5209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5203,7 +5223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5217,7 +5237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5231,7 +5251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5242,10 +5262,10 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5259,7 +5279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5273,12 +5293,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -5287,7 +5307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5301,7 +5321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5315,7 +5335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5329,7 +5349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5343,7 +5363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5357,7 +5377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5371,7 +5391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5385,7 +5405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5396,10 +5416,10 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5413,7 +5433,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5424,10 +5444,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5441,7 +5461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5455,7 +5475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5469,7 +5489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5480,10 +5500,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5497,26 +5517,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -5525,7 +5545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5539,7 +5559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5553,12 +5573,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
@@ -5567,7 +5587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5581,7 +5601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5595,7 +5615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5609,7 +5629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5623,12 +5643,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -5637,7 +5657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5651,7 +5671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5662,10 +5682,10 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5679,7 +5699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5693,7 +5713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5707,7 +5727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5721,7 +5741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5735,7 +5755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5749,26 +5769,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -5777,7 +5797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5788,10 +5808,10 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5805,21 +5825,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5833,12 +5853,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -5847,12 +5867,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C58" t="s">
         <v>38</v>
@@ -5861,7 +5881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5875,7 +5895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5889,7 +5909,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5903,7 +5923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5914,10 +5934,10 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5931,49 +5951,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5984,24 +6004,24 @@
         <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6015,7 +6035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6026,10 +6046,10 @@
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6043,21 +6063,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6068,24 +6088,24 @@
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6099,12 +6119,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s">
         <v>38</v>
@@ -6113,12 +6133,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -6127,12 +6147,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
         <v>41</v>
@@ -6141,7 +6161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6155,12 +6175,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
@@ -6169,12 +6189,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -6183,7 +6203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6194,38 +6214,38 @@
         <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6239,35 +6259,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6281,12 +6301,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C89" t="s">
         <v>38</v>
@@ -6295,7 +6315,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6306,10 +6326,10 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6323,26 +6343,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C92" t="s">
         <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
         <v>38</v>
@@ -6351,12 +6371,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -6365,7 +6385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6379,7 +6399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6393,7 +6413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6407,7 +6427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6421,7 +6441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6435,7 +6455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6449,7 +6469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6463,26 +6483,26 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C103" t="s">
         <v>38</v>
@@ -6491,7 +6511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6505,63 +6525,63 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s">
         <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6575,54 +6595,54 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C110" t="s">
         <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
         <v>41</v>
@@ -6631,12 +6651,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -6645,12 +6665,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C115" t="s">
         <v>41</v>
@@ -6659,12 +6679,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -6673,12 +6693,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C117" t="s">
         <v>38</v>
@@ -6687,12 +6707,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C118" t="s">
         <v>38</v>
@@ -6701,12 +6721,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C119" t="s">
         <v>38</v>
@@ -6715,7 +6735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6729,35 +6749,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6768,15 +6788,15 @@
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C124" t="s">
         <v>38</v>
@@ -6785,7 +6805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6799,26 +6819,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
       </c>
       <c r="D126" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
@@ -6827,40 +6847,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C129" t="s">
         <v>38</v>
       </c>
       <c r="D129" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
         <v>38</v>
@@ -6869,12 +6889,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -6883,12 +6903,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C132" t="s">
         <v>38</v>
@@ -6897,12 +6917,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
@@ -6911,12 +6931,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -6925,40 +6945,40 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C137" t="s">
         <v>19</v>
@@ -6967,12 +6987,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
         <v>19</v>
@@ -6981,12 +7001,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
@@ -6995,26 +7015,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C140" t="s">
         <v>38</v>
       </c>
       <c r="D140" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -7023,12 +7043,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C142" t="s">
         <v>38</v>
@@ -7037,12 +7057,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C143" t="s">
         <v>38</v>
@@ -7051,12 +7071,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C144" t="s">
         <v>38</v>
@@ -7065,12 +7085,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
         <v>38</v>
@@ -7079,12 +7099,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
@@ -7093,12 +7113,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C147" t="s">
         <v>38</v>
@@ -7107,12 +7127,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C148" t="s">
         <v>19</v>
@@ -7121,12 +7141,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -7135,26 +7155,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C151" t="s">
         <v>38</v>
@@ -7163,12 +7183,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C152" t="s">
         <v>38</v>
@@ -7177,12 +7197,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
@@ -7191,26 +7211,26 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
         <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -7219,12 +7239,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C156" t="s">
         <v>38</v>
@@ -7233,26 +7253,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C157" t="s">
         <v>41</v>
       </c>
       <c r="D157" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -7261,26 +7281,26 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
         <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C160" t="s">
         <v>38</v>
@@ -7289,12 +7309,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C161" t="s">
         <v>41</v>
@@ -7303,12 +7323,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C162" t="s">
         <v>19</v>
@@ -7317,12 +7337,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C163" t="s">
         <v>38</v>
@@ -7331,12 +7351,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C164" t="s">
         <v>38</v>
@@ -7345,12 +7365,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C165" t="s">
         <v>38</v>
@@ -7359,12 +7379,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
@@ -7373,12 +7393,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C167" t="s">
         <v>38</v>
@@ -7387,12 +7407,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -7401,12 +7421,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -7415,12 +7435,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C170" t="s">
         <v>41</v>
@@ -7429,12 +7449,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C171" t="s">
         <v>19</v>
@@ -7443,12 +7463,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
@@ -7457,12 +7477,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C173" t="s">
         <v>38</v>
@@ -7471,40 +7491,40 @@
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
       </c>
       <c r="D174" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -7513,26 +7533,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C177" t="s">
         <v>38</v>
       </c>
       <c r="D177" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -7541,12 +7561,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C179" t="s">
         <v>38</v>
@@ -7555,12 +7575,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C180" t="s">
         <v>19</v>
@@ -7569,26 +7589,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C182" t="s">
         <v>38</v>
@@ -7597,7 +7617,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7611,7 +7631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7625,7 +7645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7639,12 +7659,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -7653,12 +7673,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -7667,40 +7687,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C189" t="s">
         <v>38</v>
       </c>
       <c r="D189" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
@@ -7709,12 +7729,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C191" t="s">
         <v>38</v>
@@ -7723,12 +7743,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -7737,12 +7757,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
@@ -7751,12 +7771,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C194" t="s">
         <v>38</v>
@@ -7765,12 +7785,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C195" t="s">
         <v>12</v>
@@ -7779,40 +7799,40 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C197" t="s">
         <v>38</v>
       </c>
       <c r="D197" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C198" t="s">
         <v>38</v>
@@ -7821,40 +7841,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C199" t="s">
         <v>38</v>
       </c>
       <c r="D199" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C200" t="s">
         <v>38</v>
       </c>
       <c r="D200" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C201" t="s">
         <v>38</v>
@@ -7863,12 +7883,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C202" t="s">
         <v>38</v>
@@ -7877,12 +7897,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
@@ -7891,26 +7911,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C204" t="s">
         <v>38</v>
       </c>
       <c r="D204" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C205" t="s">
         <v>38</v>
@@ -7919,35 +7939,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C206" t="s">
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C207" t="s">
         <v>41</v>
       </c>
       <c r="D207" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7961,12 +7981,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C209" t="s">
         <v>19</v>
@@ -7975,12 +7995,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C210" t="s">
         <v>41</v>
@@ -7989,12 +8009,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C211" t="s">
         <v>38</v>
@@ -8003,26 +8023,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C213" t="s">
         <v>38</v>
@@ -8031,12 +8051,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C214" t="s">
         <v>41</v>
@@ -8045,12 +8065,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C215" t="s">
         <v>38</v>
@@ -8059,12 +8079,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
@@ -8073,12 +8093,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C217" t="s">
         <v>38</v>
@@ -8087,12 +8107,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C218" t="s">
         <v>19</v>
@@ -8101,12 +8121,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C219" t="s">
         <v>12</v>
@@ -8115,26 +8135,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C221" t="s">
         <v>19</v>
@@ -8143,26 +8163,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C222" t="s">
         <v>38</v>
       </c>
       <c r="D222" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
@@ -8171,12 +8191,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C224" t="s">
         <v>38</v>
@@ -8185,12 +8205,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C225" t="s">
         <v>12</v>
@@ -8199,12 +8219,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C226" t="s">
         <v>38</v>
@@ -8213,26 +8233,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C227" t="s">
         <v>38</v>
       </c>
       <c r="D227" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C228" t="s">
         <v>38</v>
@@ -8241,26 +8261,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C229" t="s">
         <v>38</v>
       </c>
       <c r="D229" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -8269,26 +8289,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -8297,12 +8317,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C233" t="s">
         <v>38</v>
@@ -8311,40 +8331,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C235" t="s">
         <v>38</v>
       </c>
       <c r="D235" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -8353,12 +8373,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C237" t="s">
         <v>41</v>
@@ -8367,12 +8387,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C238" t="s">
         <v>38</v>
@@ -8381,26 +8401,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C239" t="s">
         <v>41</v>
       </c>
       <c r="D239" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -8409,12 +8429,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C241" t="s">
         <v>19</v>
@@ -8423,26 +8443,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C242" t="s">
         <v>38</v>
       </c>
       <c r="D242" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C243" t="s">
         <v>19</v>
@@ -8451,21 +8471,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>244</v>
       </c>
@@ -8479,12 +8499,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -8493,12 +8513,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C247" t="s">
         <v>38</v>
@@ -8507,12 +8527,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C248" t="s">
         <v>38</v>
@@ -8521,12 +8541,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C249" t="s">
         <v>19</v>
@@ -8535,54 +8555,54 @@
         <v>101</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C250" t="s">
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C251" t="s">
         <v>19</v>
       </c>
       <c r="D251" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C253" t="s">
         <v>19</v>
@@ -8591,26 +8611,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C254" t="s">
         <v>38</v>
       </c>
       <c r="D254" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C255" t="s">
         <v>38</v>
@@ -8619,12 +8639,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C256" t="s">
         <v>19</v>
@@ -8633,12 +8653,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C257" t="s">
         <v>38</v>
@@ -8647,12 +8667,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C258" t="s">
         <v>19</v>
@@ -8661,26 +8681,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C259" t="s">
         <v>38</v>
       </c>
       <c r="D259" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C260" t="s">
         <v>41</v>
@@ -8689,12 +8709,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C261" t="s">
         <v>38</v>
@@ -8703,12 +8723,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C262" t="s">
         <v>38</v>
@@ -8717,12 +8737,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
@@ -8731,12 +8751,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C264" t="s">
         <v>41</v>
@@ -8745,12 +8765,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C265" t="s">
         <v>12</v>
@@ -8759,12 +8779,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C266" t="s">
         <v>19</v>
@@ -8773,54 +8793,54 @@
         <v>42</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
       </c>
       <c r="D267" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C268" t="s">
-        <v>369</v>
+        <v>38</v>
       </c>
       <c r="D268" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
       </c>
       <c r="D269" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -8829,12 +8849,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C271" t="s">
         <v>41</v>
@@ -8843,26 +8863,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C272" t="s">
         <v>38</v>
       </c>
       <c r="D272" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C273" t="s">
         <v>38</v>
@@ -8871,12 +8891,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C274" t="s">
         <v>38</v>
@@ -8885,12 +8905,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C275" t="s">
         <v>19</v>
@@ -8899,12 +8919,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -8913,12 +8933,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -8927,40 +8947,40 @@
         <v>44</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C279" t="s">
         <v>19</v>
       </c>
       <c r="D279" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C280" t="s">
         <v>38</v>
@@ -8969,12 +8989,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C281" t="s">
         <v>41</v>
@@ -8983,26 +9003,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C282" t="s">
         <v>38</v>
       </c>
       <c r="D282" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C283" t="s">
         <v>12</v>
@@ -9011,40 +9031,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
       </c>
       <c r="D284" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C285" t="s">
         <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -9053,40 +9073,40 @@
         <v>116</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C287" t="s">
         <v>38</v>
       </c>
       <c r="D287" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C288" t="s">
         <v>38</v>
       </c>
       <c r="D288" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -9095,40 +9115,40 @@
         <v>72</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
       </c>
       <c r="D290" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C291" t="s">
         <v>12</v>
       </c>
       <c r="D291" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C292" t="s">
         <v>38</v>
@@ -9137,12 +9157,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C293" t="s">
         <v>38</v>
@@ -9151,12 +9171,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C294" t="s">
         <v>38</v>
@@ -9165,12 +9185,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C295" t="s">
         <v>38</v>
@@ -9179,26 +9199,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C296" t="s">
         <v>12</v>
       </c>
       <c r="D296" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C297" t="s">
         <v>41</v>
@@ -9207,26 +9227,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C298" t="s">
         <v>38</v>
       </c>
       <c r="D298" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C299" t="s">
         <v>38</v>
@@ -9235,12 +9255,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C300" t="s">
         <v>38</v>
@@ -9249,18 +9269,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C301" t="s">
         <v>38</v>
       </c>
       <c r="D301" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/nhl-fantasy-rankings-2023.xlsx
+++ b/nhl-fantasy-rankings-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\nhl-fantasy-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E6DA8E-94E9-48A3-8476-CC6051A7F7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42923F2D-DF9C-4255-83A6-32FF941B0144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5955" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5955" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHL.com" sheetId="1" r:id="rId1"/>
@@ -386,6 +386,9 @@
     <t>Jeremy Swayman</t>
   </si>
   <si>
+    <t>Joel Eriksson Ek</t>
+  </si>
+  <si>
     <t>Vince Dunn</t>
   </si>
   <si>
@@ -918,9 +921,6 @@
   </si>
   <si>
     <t>Jacob Trouba</t>
-  </si>
-  <si>
-    <t>Joel Eriksson Ek</t>
   </si>
   <si>
     <t>MON</t>
@@ -1528,13 +1528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="25.3125" customWidth="1"/>
+    <col min="2" max="2" width="21.3671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2704,7 +2704,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2718,13 +2718,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2732,7 +2732,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
         <v>92</v>
@@ -2746,7 +2746,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
         <v>22</v>
@@ -2760,7 +2760,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
         <v>41</v>
@@ -2774,7 +2774,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
         <v>38</v>
@@ -2788,7 +2788,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
@@ -2802,7 +2802,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
         <v>19</v>
@@ -2816,7 +2816,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
         <v>41</v>
@@ -2830,7 +2830,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
         <v>57</v>
@@ -2844,7 +2844,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2858,7 +2858,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
         <v>57</v>
@@ -2872,7 +2872,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2886,7 +2886,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C97" t="s">
         <v>41</v>
@@ -2900,7 +2900,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
         <v>41</v>
@@ -2914,7 +2914,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -2928,7 +2928,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
         <v>22</v>
@@ -2942,7 +2942,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C101" t="s">
         <v>57</v>
@@ -2956,7 +2956,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C102" t="s">
         <v>41</v>
@@ -2970,7 +2970,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s">
         <v>57</v>
@@ -2984,7 +2984,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2998,7 +2998,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
         <v>38</v>
@@ -3012,7 +3012,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
         <v>41</v>
@@ -3026,7 +3026,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C107" t="s">
         <v>41</v>
@@ -3040,7 +3040,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
         <v>57</v>
@@ -3054,7 +3054,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C109" t="s">
         <v>38</v>
@@ -3068,7 +3068,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -3082,7 +3082,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C111" t="s">
         <v>22</v>
@@ -3096,7 +3096,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
@@ -3110,7 +3110,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3124,7 +3124,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C114" t="s">
         <v>38</v>
@@ -3138,7 +3138,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3152,7 +3152,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C116" t="s">
         <v>38</v>
@@ -3166,7 +3166,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C117" t="s">
         <v>38</v>
@@ -3180,13 +3180,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C118" t="s">
         <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3194,7 +3194,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C119" t="s">
         <v>41</v>
@@ -3208,7 +3208,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s">
         <v>38</v>
@@ -3222,13 +3222,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3236,13 +3236,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3250,7 +3250,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C123" t="s">
         <v>38</v>
@@ -3264,7 +3264,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
@@ -3278,13 +3278,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
         <v>57</v>
       </c>
       <c r="D125" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3292,7 +3292,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C126" t="s">
         <v>22</v>
@@ -3306,7 +3306,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
@@ -3320,13 +3320,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3334,7 +3334,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3348,7 +3348,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C130" t="s">
         <v>92</v>
@@ -3362,7 +3362,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3376,7 +3376,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3390,7 +3390,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C133" t="s">
         <v>22</v>
@@ -3404,7 +3404,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C134" t="s">
         <v>22</v>
@@ -3418,7 +3418,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
@@ -3432,13 +3432,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C136" t="s">
         <v>57</v>
       </c>
       <c r="D136" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3446,7 +3446,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C137" t="s">
         <v>38</v>
@@ -3460,7 +3460,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C138" t="s">
         <v>57</v>
@@ -3474,7 +3474,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C139" t="s">
         <v>38</v>
@@ -3488,7 +3488,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C140" t="s">
         <v>57</v>
@@ -3502,13 +3502,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3516,13 +3516,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3530,7 +3530,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3544,7 +3544,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C144" t="s">
         <v>41</v>
@@ -3558,7 +3558,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C145" t="s">
         <v>41</v>
@@ -3572,7 +3572,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C146" t="s">
         <v>38</v>
@@ -3586,7 +3586,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C147" t="s">
         <v>38</v>
@@ -3600,7 +3600,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C148" t="s">
         <v>92</v>
@@ -3614,7 +3614,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C149" t="s">
         <v>38</v>
@@ -3628,7 +3628,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3642,7 +3642,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C151" t="s">
         <v>57</v>
@@ -3656,7 +3656,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3670,7 +3670,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -3684,7 +3684,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C154" t="s">
         <v>19</v>
@@ -3698,7 +3698,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
@@ -3712,13 +3712,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C156" t="s">
         <v>57</v>
       </c>
       <c r="D156" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3726,7 +3726,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C157" t="s">
         <v>41</v>
@@ -3740,7 +3740,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C158" t="s">
         <v>38</v>
@@ -3754,7 +3754,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C159" t="s">
         <v>41</v>
@@ -3768,7 +3768,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C160" t="s">
         <v>38</v>
@@ -3782,13 +3782,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C161" t="s">
         <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3796,13 +3796,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3810,7 +3810,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C163" t="s">
         <v>38</v>
@@ -3824,7 +3824,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C164" t="s">
         <v>38</v>
@@ -3838,7 +3838,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C165" t="s">
         <v>19</v>
@@ -3852,7 +3852,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3866,7 +3866,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C167" t="s">
         <v>41</v>
@@ -3880,7 +3880,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
@@ -3894,7 +3894,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
@@ -3908,7 +3908,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
@@ -3922,13 +3922,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3936,7 +3936,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
@@ -3950,7 +3950,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C173" t="s">
         <v>41</v>
@@ -3964,7 +3964,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C174" t="s">
         <v>57</v>
@@ -3978,7 +3978,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C175" t="s">
         <v>8</v>
@@ -3992,7 +3992,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C176" t="s">
         <v>57</v>
@@ -4006,7 +4006,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4020,7 +4020,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C178" t="s">
         <v>57</v>
@@ -4034,7 +4034,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C179" t="s">
         <v>19</v>
@@ -4048,7 +4048,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4062,7 +4062,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C181" t="s">
         <v>38</v>
@@ -4076,7 +4076,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C182" t="s">
         <v>38</v>
@@ -4090,7 +4090,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C183" t="s">
         <v>41</v>
@@ -4104,7 +4104,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C184" t="s">
         <v>41</v>
@@ -4118,13 +4118,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4132,7 +4132,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C186" t="s">
         <v>41</v>
@@ -4146,7 +4146,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C187" t="s">
         <v>57</v>
@@ -4160,7 +4160,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C188" t="s">
         <v>12</v>
@@ -4174,7 +4174,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C189" t="s">
         <v>38</v>
@@ -4188,13 +4188,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C190" t="s">
         <v>8</v>
       </c>
       <c r="D190" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4202,7 +4202,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>
@@ -4216,7 +4216,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C192" t="s">
         <v>38</v>
@@ -4230,7 +4230,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C193" t="s">
         <v>38</v>
@@ -4244,7 +4244,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4258,7 +4258,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C195" t="s">
         <v>22</v>
@@ -4272,13 +4272,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4286,13 +4286,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" t="s">
         <v>239</v>
-      </c>
-      <c r="C197" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4300,7 +4300,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C198" t="s">
         <v>41</v>
@@ -4314,7 +4314,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C199" t="s">
         <v>57</v>
@@ -4328,13 +4328,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C200" t="s">
         <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4342,13 +4342,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C201" t="s">
         <v>38</v>
       </c>
       <c r="D201" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4356,7 +4356,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C202" t="s">
         <v>38</v>
@@ -4370,7 +4370,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C203" t="s">
         <v>8</v>
@@ -4384,7 +4384,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4398,7 +4398,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C205" t="s">
         <v>38</v>
@@ -4412,7 +4412,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C206" t="s">
         <v>38</v>
@@ -4426,13 +4426,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4440,7 +4440,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C208" t="s">
         <v>19</v>
@@ -4454,13 +4454,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4468,7 +4468,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C210" t="s">
         <v>8</v>
@@ -4482,7 +4482,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C211" t="s">
         <v>38</v>
@@ -4496,7 +4496,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C212" t="s">
         <v>22</v>
@@ -4510,7 +4510,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C213" t="s">
         <v>38</v>
@@ -4524,13 +4524,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C214" t="s">
         <v>38</v>
       </c>
       <c r="D214" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4538,7 +4538,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
@@ -4552,13 +4552,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C216" t="s">
         <v>41</v>
       </c>
       <c r="D216" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4566,7 +4566,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C217" t="s">
         <v>19</v>
@@ -4580,7 +4580,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C218" t="s">
         <v>57</v>
@@ -4594,13 +4594,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C219" t="s">
         <v>38</v>
       </c>
       <c r="D219" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4608,7 +4608,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C220" t="s">
         <v>38</v>
@@ -4622,13 +4622,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C221" t="s">
         <v>57</v>
       </c>
       <c r="D221" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4636,7 +4636,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C222" t="s">
         <v>12</v>
@@ -4650,13 +4650,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C223" t="s">
         <v>57</v>
       </c>
       <c r="D223" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4664,13 +4664,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4678,13 +4678,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
       </c>
       <c r="D225" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4692,7 +4692,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C226" t="s">
         <v>57</v>
@@ -4706,7 +4706,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C227" t="s">
         <v>57</v>
@@ -4720,7 +4720,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C228" t="s">
         <v>41</v>
@@ -4734,7 +4734,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C229" t="s">
         <v>57</v>
@@ -4748,7 +4748,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C230" t="s">
         <v>8</v>
@@ -4762,7 +4762,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C231" t="s">
         <v>92</v>
@@ -4776,7 +4776,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C232" t="s">
         <v>38</v>
@@ -4790,7 +4790,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C233" t="s">
         <v>38</v>
@@ -4804,7 +4804,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C234" t="s">
         <v>22</v>
@@ -4818,7 +4818,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C235" t="s">
         <v>57</v>
@@ -4832,7 +4832,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -4846,13 +4846,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4860,7 +4860,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4874,7 +4874,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C239" t="s">
         <v>12</v>
@@ -4888,7 +4888,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C240" t="s">
         <v>57</v>
@@ -4902,13 +4902,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C241" t="s">
         <v>19</v>
       </c>
       <c r="D241" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4916,7 +4916,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C242" t="s">
         <v>38</v>
@@ -4930,13 +4930,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
       </c>
       <c r="D243" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4944,7 +4944,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4958,7 +4958,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4972,7 +4972,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C246" t="s">
         <v>41</v>
@@ -4986,7 +4986,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5000,13 +5000,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C248" t="s">
         <v>38</v>
       </c>
       <c r="D248" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5014,7 +5014,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C249" t="s">
         <v>92</v>
@@ -5028,7 +5028,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C250" t="s">
         <v>19</v>
@@ -5042,7 +5042,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C251" t="s">
         <v>38</v>
@@ -5060,13 +5060,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="31.89453125" customWidth="1"/>
+    <col min="2" max="2" width="24.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5262,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5298,7 +5296,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -5416,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5444,7 +5442,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5500,7 +5498,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5522,13 +5520,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5536,7 +5534,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -5578,7 +5576,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
@@ -5648,7 +5646,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -5682,7 +5680,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5774,13 +5772,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5788,7 +5786,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -5808,7 +5806,7 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5830,13 +5828,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5858,7 +5856,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -5872,7 +5870,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
         <v>38</v>
@@ -5934,7 +5932,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5956,13 +5954,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5970,7 +5968,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -5984,13 +5982,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6004,7 +6002,7 @@
         <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6012,13 +6010,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6068,13 +6066,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6088,7 +6086,7 @@
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6096,7 +6094,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
@@ -6124,7 +6122,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
         <v>38</v>
@@ -6138,7 +6136,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -6152,7 +6150,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
         <v>41</v>
@@ -6180,7 +6178,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
@@ -6194,7 +6192,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -6214,7 +6212,7 @@
         <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6222,13 +6220,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6236,7 +6234,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -6264,13 +6262,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6278,13 +6276,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6326,7 +6324,7 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6354,7 +6352,7 @@
         <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6362,7 +6360,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
         <v>38</v>
@@ -6376,7 +6374,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -6488,13 +6486,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6502,7 +6500,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
         <v>38</v>
@@ -6530,7 +6528,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
@@ -6544,7 +6542,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
@@ -6558,13 +6556,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
         <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6572,13 +6570,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6600,13 +6598,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
         <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6620,7 +6618,7 @@
         <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6628,13 +6626,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6642,7 +6640,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C113" t="s">
         <v>41</v>
@@ -6656,7 +6654,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -6670,7 +6668,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C115" t="s">
         <v>41</v>
@@ -6684,7 +6682,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -6698,7 +6696,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
         <v>38</v>
@@ -6712,7 +6710,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
         <v>38</v>
@@ -6754,7 +6752,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -6768,13 +6766,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6788,7 +6786,7 @@
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6838,7 +6836,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
@@ -6858,7 +6856,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6866,7 +6864,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C129" t="s">
         <v>38</v>
@@ -6880,7 +6878,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C130" t="s">
         <v>38</v>
@@ -6894,7 +6892,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -6908,7 +6906,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C132" t="s">
         <v>38</v>
@@ -6922,7 +6920,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
@@ -6936,7 +6934,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -6950,13 +6948,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6964,7 +6962,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
@@ -6978,7 +6976,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
         <v>19</v>
@@ -6992,7 +6990,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
         <v>19</v>
@@ -7006,7 +7004,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
@@ -7034,7 +7032,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -7048,7 +7046,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C142" t="s">
         <v>38</v>
@@ -7090,7 +7088,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
         <v>38</v>
@@ -7104,7 +7102,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
@@ -7118,7 +7116,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C147" t="s">
         <v>38</v>
@@ -7132,7 +7130,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C148" t="s">
         <v>19</v>
@@ -7146,7 +7144,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -7160,7 +7158,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
@@ -7174,7 +7172,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C151" t="s">
         <v>38</v>
@@ -7216,7 +7214,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C154" t="s">
         <v>38</v>
@@ -7230,7 +7228,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -7258,13 +7256,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C157" t="s">
         <v>41</v>
       </c>
       <c r="D157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7272,7 +7270,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -7286,13 +7284,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C159" t="s">
         <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7314,7 +7312,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C161" t="s">
         <v>41</v>
@@ -7328,7 +7326,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C162" t="s">
         <v>19</v>
@@ -7356,7 +7354,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C164" t="s">
         <v>38</v>
@@ -7370,7 +7368,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C165" t="s">
         <v>38</v>
@@ -7384,7 +7382,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
@@ -7412,7 +7410,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -7426,7 +7424,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -7440,7 +7438,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C170" t="s">
         <v>41</v>
@@ -7454,7 +7452,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
         <v>19</v>
@@ -7468,7 +7466,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
@@ -7482,7 +7480,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C173" t="s">
         <v>38</v>
@@ -7496,13 +7494,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
       </c>
       <c r="D174" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7510,13 +7508,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7524,7 +7522,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -7538,13 +7536,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C177" t="s">
         <v>38</v>
       </c>
       <c r="D177" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7580,7 +7578,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C180" t="s">
         <v>19</v>
@@ -7594,7 +7592,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -7664,7 +7662,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -7678,7 +7676,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -7692,7 +7690,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -7712,7 +7710,7 @@
         <v>38</v>
       </c>
       <c r="D189" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7720,7 +7718,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
@@ -7734,7 +7732,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C191" t="s">
         <v>38</v>
@@ -7748,7 +7746,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -7762,7 +7760,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
@@ -7776,7 +7774,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C194" t="s">
         <v>38</v>
@@ -7804,13 +7802,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7852,7 +7850,7 @@
         <v>38</v>
       </c>
       <c r="D199" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7874,7 +7872,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C201" t="s">
         <v>38</v>
@@ -7888,7 +7886,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C202" t="s">
         <v>38</v>
@@ -7922,7 +7920,7 @@
         <v>38</v>
       </c>
       <c r="D204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7950,7 +7948,7 @@
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7958,13 +7956,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C207" t="s">
         <v>41</v>
       </c>
       <c r="D207" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7986,7 +7984,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C209" t="s">
         <v>19</v>
@@ -8014,7 +8012,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C211" t="s">
         <v>38</v>
@@ -8056,7 +8054,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C214" t="s">
         <v>41</v>
@@ -8070,7 +8068,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C215" t="s">
         <v>38</v>
@@ -8098,7 +8096,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C217" t="s">
         <v>38</v>
@@ -8182,7 +8180,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
@@ -8272,7 +8270,7 @@
         <v>38</v>
       </c>
       <c r="D229" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8280,7 +8278,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -8300,7 +8298,7 @@
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8308,7 +8306,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -8336,13 +8334,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8356,7 +8354,7 @@
         <v>38</v>
       </c>
       <c r="D235" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8364,7 +8362,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -8378,7 +8376,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C237" t="s">
         <v>41</v>
@@ -8392,7 +8390,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C238" t="s">
         <v>38</v>
@@ -8406,13 +8404,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C239" t="s">
         <v>41</v>
       </c>
       <c r="D239" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8420,7 +8418,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -8434,7 +8432,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C241" t="s">
         <v>19</v>
@@ -8462,7 +8460,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C243" t="s">
         <v>19</v>
@@ -8476,13 +8474,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8546,7 +8544,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C249" t="s">
         <v>19</v>
@@ -8566,7 +8564,7 @@
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8622,7 +8620,7 @@
         <v>38</v>
       </c>
       <c r="D254" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8644,7 +8642,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C256" t="s">
         <v>19</v>
@@ -8672,7 +8670,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C258" t="s">
         <v>19</v>
@@ -8692,7 +8690,7 @@
         <v>38</v>
       </c>
       <c r="D259" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8700,7 +8698,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C260" t="s">
         <v>41</v>
@@ -8742,7 +8740,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
@@ -8756,7 +8754,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C264" t="s">
         <v>41</v>
@@ -8832,7 +8830,7 @@
         <v>5</v>
       </c>
       <c r="D269" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8840,7 +8838,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -8854,7 +8852,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C271" t="s">
         <v>41</v>
@@ -8910,7 +8908,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C275" t="s">
         <v>19</v>
@@ -8952,13 +8950,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8966,7 +8964,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C279" t="s">
         <v>19</v>
@@ -8994,7 +8992,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C281" t="s">
         <v>41</v>
@@ -9014,7 +9012,7 @@
         <v>38</v>
       </c>
       <c r="D282" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9036,13 +9034,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
       </c>
       <c r="D284" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9056,7 +9054,7 @@
         <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9064,7 +9062,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -9084,7 +9082,7 @@
         <v>38</v>
       </c>
       <c r="D287" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9092,13 +9090,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C288" t="s">
         <v>38</v>
       </c>
       <c r="D288" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9120,7 +9118,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -9140,7 +9138,7 @@
         <v>12</v>
       </c>
       <c r="D291" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9148,7 +9146,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C292" t="s">
         <v>38</v>
@@ -9218,7 +9216,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C297" t="s">
         <v>41</v>
@@ -9232,13 +9230,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298" t="s">
         <v>38</v>
       </c>
       <c r="D298" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/nhl-fantasy-rankings-2023.xlsx
+++ b/nhl-fantasy-rankings-2023.xlsx
@@ -8,26 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\nhl-fantasy-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7229A-082F-416D-AFC8-AB9F587102F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAC7B2E-264D-4FA7-9D64-B2729D50CC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5955" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="6180" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHL.com" sheetId="1" r:id="rId1"/>
     <sheet name="ESPN" sheetId="2" r:id="rId2"/>
-    <sheet name="Average Rankings" sheetId="3" r:id="rId3"/>
+    <sheet name="Yahoo" sheetId="3" r:id="rId3"/>
+    <sheet name="Average Rankings" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Average Rankings'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Average Rankings'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ESPN!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NHL.com!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Yahoo!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="457">
   <si>
     <t>Rank</t>
   </si>
@@ -1185,6 +1200,216 @@
   </si>
   <si>
     <t>Arber Xhekaj</t>
+  </si>
+  <si>
+    <t>Mitch Marner</t>
+  </si>
+  <si>
+    <t>Alex Killorn</t>
+  </si>
+  <si>
+    <t>Jason Zucker</t>
+  </si>
+  <si>
+    <t>Tyler Seguin</t>
+  </si>
+  <si>
+    <t>Casey Mittelstadt</t>
+  </si>
+  <si>
+    <t>Yanni Gourde</t>
+  </si>
+  <si>
+    <t>Jordan Binnington</t>
+  </si>
+  <si>
+    <t>William Karlsson</t>
+  </si>
+  <si>
+    <t>Conor Garland</t>
+  </si>
+  <si>
+    <t>Andrew Mangiapane</t>
+  </si>
+  <si>
+    <t>Blake Coleman</t>
+  </si>
+  <si>
+    <t>Nino Niederreiter</t>
+  </si>
+  <si>
+    <t>Erik Haula</t>
+  </si>
+  <si>
+    <t>Tomas Tatar</t>
+  </si>
+  <si>
+    <t>Andreas Athanasiou</t>
+  </si>
+  <si>
+    <t>Marcus Johansson</t>
+  </si>
+  <si>
+    <t>Evan Rodrigues</t>
+  </si>
+  <si>
+    <t>Charlie Coyle</t>
+  </si>
+  <si>
+    <t>Ryan Strome</t>
+  </si>
+  <si>
+    <t>Jaden Schwartz</t>
+  </si>
+  <si>
+    <t>Victor Olofsson</t>
+  </si>
+  <si>
+    <t>Alexander Barabanov</t>
+  </si>
+  <si>
+    <t>John Gibson</t>
+  </si>
+  <si>
+    <t>Zach Parise</t>
+  </si>
+  <si>
+    <t>Jordan Martinook</t>
+  </si>
+  <si>
+    <t>Joel Farabee</t>
+  </si>
+  <si>
+    <t>Martin Jones</t>
+  </si>
+  <si>
+    <t>Conor Sheary</t>
+  </si>
+  <si>
+    <t>Mason Marchment</t>
+  </si>
+  <si>
+    <t>Pheonix Copley</t>
+  </si>
+  <si>
+    <t>Ross Colton</t>
+  </si>
+  <si>
+    <t>Phil Kessel</t>
+  </si>
+  <si>
+    <t>Adam Henrique</t>
+  </si>
+  <si>
+    <t>Stefan Noesen</t>
+  </si>
+  <si>
+    <t>Miles Wood</t>
+  </si>
+  <si>
+    <t>Frederick Gaudreau</t>
+  </si>
+  <si>
+    <t>Pavel Francouz</t>
+  </si>
+  <si>
+    <t>Semyon Varlamov</t>
+  </si>
+  <si>
+    <t>Joseph Woll</t>
+  </si>
+  <si>
+    <t>Laurent Brossoit</t>
+  </si>
+  <si>
+    <t>Scott Wedgewood</t>
+  </si>
+  <si>
+    <t>Alex Lyon</t>
+  </si>
+  <si>
+    <t>Garnet Hathaway</t>
+  </si>
+  <si>
+    <t>Mike Smith</t>
+  </si>
+  <si>
+    <t>Keith Kinkaid</t>
+  </si>
+  <si>
+    <t>Dustin Wolf</t>
+  </si>
+  <si>
+    <t>Dylan Ferguson</t>
+  </si>
+  <si>
+    <t>Jiri Patera</t>
+  </si>
+  <si>
+    <t>Alex Stalock</t>
+  </si>
+  <si>
+    <t>Jaxson Stauber</t>
+  </si>
+  <si>
+    <t>Jaroslav Halak</t>
+  </si>
+  <si>
+    <t>Michael Houser</t>
+  </si>
+  <si>
+    <t>Louis Domingue</t>
+  </si>
+  <si>
+    <t>Samuel Ersson</t>
+  </si>
+  <si>
+    <t>Eetu Makiniemi</t>
+  </si>
+  <si>
+    <t>Jordan Staal</t>
+  </si>
+  <si>
+    <t>Brandon Tanev</t>
+  </si>
+  <si>
+    <t>Arturs Silovs</t>
+  </si>
+  <si>
+    <t>Jet Greaves</t>
+  </si>
+  <si>
+    <t>Robin Lehner</t>
+  </si>
+  <si>
+    <t>Braden Holtby</t>
+  </si>
+  <si>
+    <t>Anton Forsberg</t>
+  </si>
+  <si>
+    <t>Matt Villalta</t>
+  </si>
+  <si>
+    <t>Jeremy Brodeur</t>
+  </si>
+  <si>
+    <t>Strauss Mann</t>
+  </si>
+  <si>
+    <t>Joel Blomqvist</t>
+  </si>
+  <si>
+    <t>Clay Stevenson</t>
+  </si>
+  <si>
+    <t>Hunter Shepard</t>
+  </si>
+  <si>
+    <t>Isaac Poulter</t>
+  </si>
+  <si>
+    <t>Gage Alexander</t>
   </si>
   <si>
     <t>Average Rank</t>
@@ -1531,11 +1756,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="22.41796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -5061,9 +5287,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="27.41796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -9287,16 +9518,2439 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E325" sqref="E325"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B407"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.68359375" customWidth="1"/>
-    <col min="2" max="2" width="25.05078125" customWidth="1"/>
+    <col min="1" max="1" width="33.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -9304,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -9328,7 +11982,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -9336,7 +11990,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -9344,7 +11998,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>5.5</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -9352,23 +12006,23 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>7.5</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>8.5</v>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -9376,52 +12030,52 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>11.33333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>11.5</v>
+        <v>11.33333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>11.5</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>12.5</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15">
-        <v>14.5</v>
+        <v>15.33333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -9429,18 +12083,18 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>16.5</v>
+        <v>17.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -9453,18 +12107,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>19.5</v>
+        <v>19.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B21">
-        <v>20.5</v>
+        <v>20.333333333333329</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -9472,116 +12126,117 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>22.666666666666671</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>26.333333333333329</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B24">
-        <v>26.5</v>
+        <v>26.333333333333329</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>26.5</v>
+        <v>26.666666666666671</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>294</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <f>82/3</f>
+        <v>27.333333333333332</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B27">
-        <v>27.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>29.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B30">
-        <v>31.5</v>
+        <v>31.333333333333329</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B31">
-        <v>31.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>34.333333333333343</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B33">
-        <v>33.5</v>
+        <v>34.666666666666657</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B34">
-        <v>36</v>
+        <v>34.666666666666657</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>36.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>37</v>
@@ -9589,634 +12244,634 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37">
-        <v>38.5</v>
+        <v>38.333333333333343</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B38">
-        <v>41.5</v>
+        <v>41.333333333333343</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B39">
-        <v>43</v>
+        <v>41.666666666666657</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B40">
-        <v>43.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B41">
-        <v>44</v>
+        <v>44.666666666666657</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B42">
-        <v>44</v>
+        <v>46.666666666666657</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B43">
-        <v>45.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44">
-        <v>46</v>
+        <v>48.333333333333343</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B45">
-        <v>47.5</v>
+        <v>50.666666666666657</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>48</v>
+        <v>52.333333333333343</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>52.666666666666657</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B48">
-        <v>50.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B49">
-        <v>52.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B50">
-        <v>52.5</v>
+        <v>55.666666666666657</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B51">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B52">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B53">
-        <v>55.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B54">
-        <v>55.5</v>
+        <v>57.333333333333343</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="B55">
-        <v>57</v>
+        <v>57.666666666666657</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B56">
-        <v>57.5</v>
+        <v>61.666666666666657</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B57">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B58">
-        <v>60.5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B59">
-        <v>61</v>
+        <v>64.333333333333329</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B60">
-        <v>62</v>
+        <v>64.666666666666671</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B61">
-        <v>63</v>
+        <v>65.666666666666671</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B62">
-        <v>66.5</v>
+        <v>67.333333333333329</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B63">
-        <v>68.5</v>
+        <v>68.333333333333329</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B64">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B65">
-        <v>69</v>
+        <v>71.666666666666671</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>69.5</v>
+        <v>72.333333333333329</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B67">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B68">
-        <v>71.5</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B69">
-        <v>72.5</v>
+        <v>74.666666666666671</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B70">
-        <v>73.5</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B71">
-        <v>74.5</v>
+        <v>77.333333333333329</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B73">
-        <v>75</v>
+        <v>79.333333333333329</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B74">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B75">
-        <v>76</v>
+        <v>80.666666666666671</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B76">
-        <v>79</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B77">
-        <v>79</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>79</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="B79">
-        <v>79.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B80">
-        <v>80</v>
+        <v>85.333333333333329</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B81">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B83">
-        <v>82</v>
+        <v>89.333333333333329</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B84">
-        <v>85.5</v>
+        <v>90.333333333333329</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B85">
-        <v>88</v>
+        <v>90.333333333333329</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="B86">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="B87">
-        <v>88</v>
+        <v>92.333333333333329</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>92.333333333333329</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="B89">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>93</v>
+        <v>95.333333333333329</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B91">
-        <v>93.5</v>
+        <v>95.333333333333329</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B92">
-        <v>94.5</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B93">
-        <v>96</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B94">
-        <v>96.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B95">
-        <v>97.5</v>
+        <v>101.3333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B96">
-        <v>98.5</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B97">
-        <v>100.5</v>
+        <v>102.6666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>101</v>
+        <v>103.3333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B99">
-        <v>102</v>
+        <v>106.3333333333333</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B100">
-        <v>102.5</v>
+        <v>106.3333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B101">
-        <v>103</v>
+        <v>107.6666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B102">
-        <v>103</v>
+        <v>107.6666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="B103">
-        <v>103.5</v>
+        <v>107.6666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B104">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="B105">
-        <v>106.5</v>
+        <v>108.3333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>302</v>
       </c>
       <c r="B106">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B107">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="B108">
-        <v>110</v>
+        <v>111.3333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B109">
-        <v>111</v>
+        <v>111.3333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B110">
-        <v>112</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B111">
-        <v>112.5</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="B112">
-        <v>113.5</v>
+        <v>113.3333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="B113">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B114">
-        <v>114.5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B115">
-        <v>116.5</v>
+        <v>117.3333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10224,260 +12879,260 @@
         <v>139</v>
       </c>
       <c r="B116">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="B117">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>303</v>
+        <v>137</v>
       </c>
       <c r="B118">
-        <v>118</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="B119">
-        <v>118.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B120">
-        <v>118.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B121">
-        <v>118.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B122">
-        <v>120</v>
+        <v>122.3333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B123">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="B124">
-        <v>120.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B125">
-        <v>120.5</v>
+        <v>125.6666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>300</v>
       </c>
       <c r="B126">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="B127">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="B128">
-        <v>123</v>
+        <v>128.33333333333329</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="B129">
-        <v>123.5</v>
+        <v>128.66666666666671</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="B130">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="B131">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B132">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>307</v>
+        <v>147</v>
       </c>
       <c r="B133">
-        <v>127</v>
+        <v>137.33333333333329</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="B134">
-        <v>127.5</v>
+        <v>137.66666666666671</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B135">
-        <v>127.5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>387</v>
       </c>
       <c r="B136">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="B137">
-        <v>130.5</v>
+        <v>138.33333333333329</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="B138">
-        <v>131</v>
+        <v>138.33333333333329</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B139">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>308</v>
       </c>
       <c r="B140">
-        <v>132.5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B141">
-        <v>133</v>
+        <v>140.33333333333329</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="B142">
-        <v>135</v>
+        <v>140.66666666666671</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="B143">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="B144">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B145">
-        <v>142</v>
+        <v>142.33333333333329</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="B146">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B147">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>185</v>
+        <v>388</v>
       </c>
       <c r="B148">
         <v>143</v>
@@ -10485,95 +13140,95 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B149">
-        <v>143</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="B150">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="B151">
-        <v>143.5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="B152">
-        <v>145</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="B153">
-        <v>145.5</v>
+        <v>146.66666666666671</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B154">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="B155">
-        <v>147.5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="B156">
-        <v>150.5</v>
+        <v>149.5</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="B157">
-        <v>151</v>
+        <v>149.66666666666671</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="B158">
-        <v>151</v>
+        <v>150.33333333333329</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="B159">
-        <v>151.5</v>
+        <v>150.66666666666671</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="B160">
         <v>152</v>
@@ -10581,850 +13236,850 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B161">
-        <v>153</v>
+        <v>152.66666666666671</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B162">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B163">
-        <v>154.5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B164">
-        <v>154.5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B165">
-        <v>155</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="B166">
-        <v>155</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B167">
-        <v>157.5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>389</v>
       </c>
       <c r="B168">
-        <v>157.5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B169">
-        <v>158.5</v>
+        <v>156.33333333333329</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>314</v>
+        <v>145</v>
       </c>
       <c r="B170">
-        <v>159</v>
+        <v>156.66666666666671</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="B171">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="B172">
-        <v>162.5</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B173">
-        <v>163</v>
+        <v>158.66666666666671</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="B174">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B175">
-        <v>163.5</v>
+        <v>159.66666666666671</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B176">
-        <v>165</v>
+        <v>159.66666666666671</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B177">
-        <v>166</v>
+        <v>160.66666666666671</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="B178">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="B179">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="B180">
-        <v>167.5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B181">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>143</v>
+        <v>316</v>
       </c>
       <c r="B182">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="B183">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="B184">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B185">
-        <v>176</v>
+        <v>167.33333333333329</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="B186">
-        <v>176.5</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B187">
-        <v>177</v>
+        <v>167.66666666666671</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>391</v>
       </c>
       <c r="B188">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="B189">
-        <v>177</v>
+        <v>168.5</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>183</v>
+        <v>312</v>
       </c>
       <c r="B190">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="B191">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B192">
-        <v>178.5</v>
+        <v>169.33333333333329</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="B193">
-        <v>178.5</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="B194">
-        <v>180</v>
+        <v>171.33333333333329</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="B195">
-        <v>180.5</v>
+        <v>171.66666666666671</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>319</v>
+        <v>207</v>
       </c>
       <c r="B196">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="B197">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>162</v>
+        <v>337</v>
       </c>
       <c r="B198">
-        <v>182.5</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="B199">
-        <v>184</v>
+        <v>172.33333333333329</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="B200">
-        <v>185</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B201">
-        <v>185</v>
+        <v>173.33333333333329</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B202">
-        <v>185.5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B203">
-        <v>186</v>
+        <v>175.33333333333329</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B204">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>174</v>
+        <v>393</v>
       </c>
       <c r="B205">
-        <v>186.5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B206">
-        <v>188</v>
+        <v>176.5</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B207">
-        <v>188</v>
+        <v>176.66666666666671</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B208">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B209">
-        <v>188.5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="B210">
-        <v>188.5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="B211">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
       <c r="B212">
-        <v>189.5</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="B213">
-        <v>190.5</v>
+        <v>179.66666666666671</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="B214">
-        <v>191</v>
+        <v>180.33333333333329</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="B215">
-        <v>192</v>
+        <v>180.5</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B216">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B217">
-        <v>195.5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="B218">
-        <v>196</v>
+        <v>182.33333333333329</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B219">
-        <v>196.5</v>
+        <v>182.66666666666671</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="B220">
-        <v>197</v>
+        <v>184.33333333333329</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B221">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="B222">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="B223">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="B224">
-        <v>199.5</v>
+        <v>186.5</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="B225">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="B226">
-        <v>202</v>
+        <v>188.33333333333329</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="B227">
-        <v>202</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="B228">
-        <v>202.5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B229">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="B230">
-        <v>203.5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B231">
-        <v>204</v>
+        <v>191.33333333333329</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="B232">
-        <v>204</v>
+        <v>191.66666666666671</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="B233">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>252</v>
+        <v>397</v>
       </c>
       <c r="B234">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>329</v>
+        <v>178</v>
       </c>
       <c r="B235">
-        <v>205</v>
+        <v>192.33333333333329</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="B236">
-        <v>206</v>
+        <v>194.33333333333329</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>277</v>
+        <v>152</v>
       </c>
       <c r="B237">
-        <v>207</v>
+        <v>194.66666666666671</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="B238">
-        <v>207.5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="B239">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="B240">
-        <v>208.5</v>
+        <v>196.5</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="B241">
-        <v>208.5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="B242">
-        <v>209</v>
+        <v>197.66666666666671</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B243">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="B244">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="B245">
-        <v>211.5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B246">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>254</v>
+        <v>399</v>
       </c>
       <c r="B247">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B248">
-        <v>213.5</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>198</v>
+        <v>400</v>
       </c>
       <c r="B249">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B250">
-        <v>214</v>
+        <v>201.33333333333329</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="B251">
-        <v>214.5</v>
+        <v>201.5</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="B252">
-        <v>215</v>
+        <v>201.66666666666671</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="B253">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="B254">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B255">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B256">
-        <v>217.5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B257">
-        <v>217.5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="B258">
-        <v>218</v>
+        <v>205.66666666666671</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="B259">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="B260">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B261">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="B262">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="B263">
-        <v>221</v>
+        <v>208.66666666666671</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="B264">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
-        <v>339</v>
+        <v>404</v>
       </c>
       <c r="B265">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="B266">
-        <v>224</v>
+        <v>209.5</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -11432,580 +14087,1132 @@
         <v>340</v>
       </c>
       <c r="B267">
-        <v>224</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B268">
-        <v>224.5</v>
+        <v>211</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>405</v>
       </c>
       <c r="B269">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B270">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="B271">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B272">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="B273">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B274">
-        <v>228</v>
+        <v>212.33333333333329</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="B275">
-        <v>228</v>
+        <v>212.66666666666671</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B276">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="B277">
-        <v>229.5</v>
+        <v>213.33333333333329</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="B278">
-        <v>230</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B279">
-        <v>232</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B280">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B281">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B282">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="B283">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="B284">
-        <v>236</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="B285">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="B286">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="B287">
-        <v>240.5</v>
+        <v>219.5</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="B288">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="B289">
-        <v>241</v>
+        <v>220.66666666666671</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="B290">
-        <v>242.5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="B291">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="B292">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B293">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="B294">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="B295">
-        <v>245.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="B296">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B297">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B298">
-        <v>247</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="B299">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="B300">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
-        <v>353</v>
+        <v>251</v>
       </c>
       <c r="B301">
-        <v>250</v>
+        <v>228.66666666666671</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="B302">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="B303">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="B304">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="B305">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B306">
-        <v>253.5</v>
+        <v>231.5</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
-        <v>357</v>
+        <v>274</v>
       </c>
       <c r="B307">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="B308">
-        <v>255.5</v>
+        <v>232</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B309">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="B310">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="B311">
-        <v>259</v>
+        <v>233.66666666666671</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="B312">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B313">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="B314">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="B315">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="B316">
-        <v>266</v>
+        <v>237</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="B317">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="B318">
-        <v>268</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="B319">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B320">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="B321">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
-        <v>369</v>
+        <v>283</v>
       </c>
       <c r="B322">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B323">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="B324">
-        <v>276</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="B325">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B326">
-        <v>281</v>
+        <v>243.5</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B327">
-        <v>282</v>
+        <v>244</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B328">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B329">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="B330">
-        <v>288</v>
+        <v>246</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
-        <v>378</v>
+        <v>226</v>
       </c>
       <c r="B331">
-        <v>290</v>
+        <v>246.33333333333329</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="B332">
-        <v>292</v>
+        <v>247</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="B333">
-        <v>293</v>
+        <v>248</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="B334">
-        <v>294</v>
+        <v>249</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B335">
-        <v>295</v>
+        <v>250</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="B336">
-        <v>298</v>
+        <v>250.5</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="B337">
-        <v>299</v>
+        <v>251</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
+        <v>377</v>
+      </c>
+      <c r="B338">
+        <v>251.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A339" t="s">
+        <v>272</v>
+      </c>
+      <c r="B339">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340" t="s">
+        <v>355</v>
+      </c>
+      <c r="B340">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341" t="s">
+        <v>356</v>
+      </c>
+      <c r="B341">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342" t="s">
+        <v>420</v>
+      </c>
+      <c r="B342">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343" t="s">
+        <v>357</v>
+      </c>
+      <c r="B343">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A344" t="s">
+        <v>363</v>
+      </c>
+      <c r="B344">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345" t="s">
+        <v>382</v>
+      </c>
+      <c r="B345">
+        <v>254.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346" t="s">
+        <v>421</v>
+      </c>
+      <c r="B346">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347" t="s">
+        <v>264</v>
+      </c>
+      <c r="B347">
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348" t="s">
+        <v>358</v>
+      </c>
+      <c r="B348">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349" t="s">
+        <v>359</v>
+      </c>
+      <c r="B349">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350" t="s">
+        <v>362</v>
+      </c>
+      <c r="B350">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351" t="s">
+        <v>282</v>
+      </c>
+      <c r="B351">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" t="s">
+        <v>422</v>
+      </c>
+      <c r="B352">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" t="s">
+        <v>360</v>
+      </c>
+      <c r="B353">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354" t="s">
+        <v>423</v>
+      </c>
+      <c r="B354">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355" t="s">
+        <v>361</v>
+      </c>
+      <c r="B355">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" t="s">
+        <v>424</v>
+      </c>
+      <c r="B356">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" t="s">
+        <v>425</v>
+      </c>
+      <c r="B357">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358" t="s">
+        <v>364</v>
+      </c>
+      <c r="B358">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" t="s">
+        <v>426</v>
+      </c>
+      <c r="B359">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" t="s">
+        <v>365</v>
+      </c>
+      <c r="B360">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" t="s">
+        <v>427</v>
+      </c>
+      <c r="B361">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362" t="s">
+        <v>367</v>
+      </c>
+      <c r="B362">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" t="s">
+        <v>289</v>
+      </c>
+      <c r="B363">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364" t="s">
+        <v>368</v>
+      </c>
+      <c r="B364">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" t="s">
+        <v>371</v>
+      </c>
+      <c r="B365">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366" t="s">
+        <v>372</v>
+      </c>
+      <c r="B366">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" t="s">
+        <v>428</v>
+      </c>
+      <c r="B367">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369" t="s">
+        <v>429</v>
+      </c>
+      <c r="B369">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" t="s">
+        <v>430</v>
+      </c>
+      <c r="B370">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372" t="s">
+        <v>431</v>
+      </c>
+      <c r="B372">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373" t="s">
+        <v>432</v>
+      </c>
+      <c r="B373">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374">
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375" t="s">
+        <v>433</v>
+      </c>
+      <c r="B375">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376" t="s">
+        <v>434</v>
+      </c>
+      <c r="B376">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377" t="s">
+        <v>435</v>
+      </c>
+      <c r="B377">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" t="s">
+        <v>373</v>
+      </c>
+      <c r="B378">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379" t="s">
+        <v>436</v>
+      </c>
+      <c r="B379">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" t="s">
+        <v>374</v>
+      </c>
+      <c r="B380">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" t="s">
+        <v>437</v>
+      </c>
+      <c r="B381">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382" t="s">
+        <v>438</v>
+      </c>
+      <c r="B382">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" t="s">
+        <v>439</v>
+      </c>
+      <c r="B383">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" t="s">
+        <v>440</v>
+      </c>
+      <c r="B384">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" t="s">
+        <v>376</v>
+      </c>
+      <c r="B385">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386" t="s">
+        <v>441</v>
+      </c>
+      <c r="B386">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387" t="s">
+        <v>442</v>
+      </c>
+      <c r="B387">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388" t="s">
+        <v>443</v>
+      </c>
+      <c r="B388">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A389" t="s">
+        <v>444</v>
+      </c>
+      <c r="B389">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A390" t="s">
+        <v>378</v>
+      </c>
+      <c r="B390">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A391" t="s">
+        <v>445</v>
+      </c>
+      <c r="B391">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A392" t="s">
+        <v>446</v>
+      </c>
+      <c r="B392">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A393" t="s">
+        <v>379</v>
+      </c>
+      <c r="B393">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" t="s">
+        <v>447</v>
+      </c>
+      <c r="B394">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" t="s">
+        <v>380</v>
+      </c>
+      <c r="B395">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" t="s">
+        <v>448</v>
+      </c>
+      <c r="B396">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A397" t="s">
+        <v>381</v>
+      </c>
+      <c r="B397">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" t="s">
+        <v>449</v>
+      </c>
+      <c r="B398">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A399" t="s">
+        <v>450</v>
+      </c>
+      <c r="B399">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A400" t="s">
+        <v>451</v>
+      </c>
+      <c r="B400">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A401" t="s">
+        <v>452</v>
+      </c>
+      <c r="B401">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A402" t="s">
+        <v>383</v>
+      </c>
+      <c r="B402">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" t="s">
+        <v>453</v>
+      </c>
+      <c r="B403">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" t="s">
+        <v>384</v>
+      </c>
+      <c r="B404">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" t="s">
+        <v>454</v>
+      </c>
+      <c r="B405">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" t="s">
         <v>385</v>
       </c>
-      <c r="B338">
+      <c r="B406">
         <v>300</v>
       </c>
     </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" t="s">
+        <v>455</v>
+      </c>
+      <c r="B407">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B338">
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B407">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/nhl-fantasy-rankings-2023.xlsx
+++ b/nhl-fantasy-rankings-2023.xlsx
@@ -13,10 +13,10 @@
     <sheet name="Average Rankings" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Average Rankings'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ESPN!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NHL.com'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Yahoo!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Average Rankings'!$A$1:$B$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ESPN!$A$1:$D$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NHL.com'!$A$1:$D$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Yahoo!$A$1:$B$301</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1709,6 +1709,12 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -5225,7 +5231,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D301"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5237,6 +5243,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9453,7 +9465,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D301"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9465,6 +9477,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -11875,7 +11891,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B301"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11887,6 +11903,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -15097,7 +15117,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B501"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>